--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7793D5FC-A7D1-4B4E-9F45-69910EEAC61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064960E-7353-4FE7-9008-F463CF90A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="526">
   <si>
     <t>emp_id</t>
   </si>
@@ -650,21 +650,6 @@
   </si>
   <si>
     <t>1968-05-23</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
   </si>
   <si>
     <t>Part-time</t>
@@ -1707,6 +1692,12 @@
   </si>
   <si>
     <t>8C</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -2076,11 +2067,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2128,28 +2126,28 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" t="s">
         <v>210</v>
       </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H2">
         <v>648559061756</v>
       </c>
       <c r="I2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2163,28 +2161,28 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H3">
         <v>137952611474</v>
       </c>
       <c r="I3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2198,28 +2196,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H4">
         <v>706652989133</v>
       </c>
       <c r="I4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2233,28 +2231,28 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H5">
         <v>403582754984</v>
       </c>
       <c r="I5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2268,28 +2266,28 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H6">
         <v>315832342388</v>
       </c>
       <c r="I6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J6" t="s">
         <v>420</v>
       </c>
-      <c r="J6" t="s">
-        <v>425</v>
-      </c>
       <c r="K6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2303,28 +2301,28 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" t="s">
         <v>210</v>
       </c>
-      <c r="E7" t="s">
-        <v>215</v>
-      </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H7">
         <v>743091774687</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2338,28 +2336,28 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H8">
         <v>431974422209</v>
       </c>
       <c r="I8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2373,28 +2371,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H9">
         <v>979780241502</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2408,28 +2406,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H10">
         <v>229497359664</v>
       </c>
       <c r="I10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2443,28 +2441,28 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H11">
         <v>597299568796</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2478,28 +2476,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H12">
         <v>212379069599</v>
       </c>
       <c r="I12" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2513,28 +2511,28 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" t="s">
         <v>211</v>
       </c>
-      <c r="E13" t="s">
-        <v>216</v>
-      </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H13">
         <v>206418354101</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K13" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2548,28 +2546,28 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" t="s">
         <v>213</v>
       </c>
-      <c r="E14" t="s">
-        <v>218</v>
-      </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H14">
         <v>584192351886</v>
       </c>
       <c r="I14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J14" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2583,28 +2581,28 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H15">
         <v>196039167242</v>
       </c>
       <c r="I15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K15" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2618,28 +2616,28 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H16">
         <v>759042244189</v>
       </c>
       <c r="I16" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2653,28 +2651,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H17">
         <v>467607418144</v>
       </c>
       <c r="I17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J17" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2688,28 +2686,28 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H18">
         <v>364779979890</v>
       </c>
       <c r="I18" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2723,28 +2721,28 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E19" t="s">
         <v>211</v>
       </c>
-      <c r="E19" t="s">
-        <v>216</v>
-      </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H19">
         <v>810667824063</v>
       </c>
       <c r="I19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2758,28 +2756,28 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G20" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H20">
         <v>121216267981</v>
       </c>
       <c r="I20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J20" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K20" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2793,28 +2791,28 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
+        <v>524</v>
+      </c>
+      <c r="E21" t="s">
         <v>212</v>
       </c>
-      <c r="E21" t="s">
-        <v>217</v>
-      </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H21">
         <v>195494225870</v>
       </c>
       <c r="I21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K21" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2828,28 +2826,28 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H22">
         <v>537438151053</v>
       </c>
       <c r="I22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K22" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2863,28 +2861,28 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
+        <v>524</v>
+      </c>
+      <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="E23" t="s">
-        <v>218</v>
-      </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H23">
         <v>897446102202</v>
       </c>
       <c r="I23" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J23" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2898,28 +2896,28 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" t="s">
         <v>212</v>
       </c>
-      <c r="E24" t="s">
-        <v>217</v>
-      </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H24">
         <v>937187699111</v>
       </c>
       <c r="I24" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K24" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2933,28 +2931,28 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" t="s">
         <v>213</v>
       </c>
-      <c r="E25" t="s">
-        <v>218</v>
-      </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H25">
         <v>779818943791</v>
       </c>
       <c r="I25" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J25" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2968,28 +2966,28 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H26">
         <v>952701409513</v>
       </c>
       <c r="I26" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J26" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3003,28 +3001,28 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H27">
         <v>941799797738</v>
       </c>
       <c r="I27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J27" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K27" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3038,28 +3036,28 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H28">
         <v>524429255605</v>
       </c>
       <c r="I28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J28" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K28" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3073,28 +3071,28 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H29">
         <v>900167539314</v>
       </c>
       <c r="I29" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J29" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K29" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3108,28 +3106,28 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" t="s">
         <v>210</v>
       </c>
-      <c r="E30" t="s">
-        <v>215</v>
-      </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H30">
         <v>957134240394</v>
       </c>
       <c r="I30" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J30" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K30" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3143,28 +3141,28 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H31">
         <v>612058883882</v>
       </c>
       <c r="I31" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J31" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K31" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3178,28 +3176,28 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H32">
         <v>463099846798</v>
       </c>
       <c r="I32" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J32" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K32" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3213,28 +3211,28 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H33">
         <v>741983234529</v>
       </c>
       <c r="I33" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J33" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K33" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3248,28 +3246,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H34">
         <v>223588277519</v>
       </c>
       <c r="I34" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J34" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K34" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3283,28 +3281,28 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H35">
         <v>278144285507</v>
       </c>
       <c r="I35" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J35" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K35" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3318,28 +3316,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H36">
         <v>460588189626</v>
       </c>
       <c r="I36" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K36" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3353,28 +3351,28 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>524</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G37" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H37">
         <v>632069846593</v>
       </c>
       <c r="I37" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K37" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3388,28 +3386,28 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H38">
         <v>539277202439</v>
       </c>
       <c r="I38" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J38" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K38" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3423,28 +3421,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G39" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H39">
         <v>458703642524</v>
       </c>
       <c r="I39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J39" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K39" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3458,28 +3456,28 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H40">
         <v>143951791695</v>
       </c>
       <c r="I40" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J40" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K40" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3493,28 +3491,28 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H41">
         <v>702572597624</v>
       </c>
       <c r="I41" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J41" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K41" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3528,28 +3526,28 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H42">
         <v>781452946044</v>
       </c>
       <c r="I42" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K42" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3563,28 +3561,28 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H43">
         <v>102283712742</v>
       </c>
       <c r="I43" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J43" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K43" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3598,28 +3596,28 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H44">
         <v>727752747523</v>
       </c>
       <c r="I44" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K44" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3633,28 +3631,28 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>524</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G45" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H45">
         <v>295898199420</v>
       </c>
       <c r="I45" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K45" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3668,28 +3666,28 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H46">
         <v>515687510305</v>
       </c>
       <c r="I46" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K46" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3703,28 +3701,28 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
+        <v>524</v>
+      </c>
+      <c r="E47" t="s">
         <v>212</v>
       </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H47">
         <v>621685561996</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3738,28 +3736,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H48">
         <v>788093413338</v>
       </c>
       <c r="I48" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K48" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3773,28 +3771,28 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>524</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G49" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H49">
         <v>474760840752</v>
       </c>
       <c r="I49" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3808,28 +3806,28 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
+        <v>524</v>
+      </c>
+      <c r="E50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
-        <v>216</v>
-      </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H50">
         <v>963698244498</v>
       </c>
       <c r="I50" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J50" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K50" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3843,28 +3841,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G51" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H51">
         <v>544948800338</v>
       </c>
       <c r="I51" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J51" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3878,28 +3876,28 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E52" t="s">
         <v>211</v>
       </c>
-      <c r="E52" t="s">
-        <v>216</v>
-      </c>
       <c r="F52" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G52" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H52">
         <v>404839120610</v>
       </c>
       <c r="I52" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3913,28 +3911,28 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G53" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H53">
         <v>589306943235</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K53" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3948,28 +3946,28 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H54">
         <v>532840442107</v>
       </c>
       <c r="I54" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K54" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3983,28 +3981,28 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G55" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H55">
         <v>906299273502</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4018,28 +4016,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G56" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H56">
         <v>936633830009</v>
       </c>
       <c r="I56" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J56" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K56" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4053,28 +4051,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H57">
         <v>945573911962</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4088,28 +4086,28 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
+        <v>525</v>
+      </c>
+      <c r="E58" t="s">
         <v>211</v>
       </c>
-      <c r="E58" t="s">
-        <v>216</v>
-      </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G58" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H58">
         <v>661091207706</v>
       </c>
       <c r="I58" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4123,28 +4121,28 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G59" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H59">
         <v>811738304307</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K59" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4158,28 +4156,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F60" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G60" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H60">
         <v>911171415256</v>
       </c>
       <c r="I60" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J60" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K60" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4193,28 +4191,28 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G61" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H61">
         <v>437987573852</v>
       </c>
       <c r="I61" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K61" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4228,28 +4226,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G62" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H62">
         <v>464497405803</v>
       </c>
       <c r="I62" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K62" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4263,28 +4261,28 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
+        <v>525</v>
+      </c>
+      <c r="E63" t="s">
         <v>211</v>
       </c>
-      <c r="E63" t="s">
-        <v>216</v>
-      </c>
       <c r="F63" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G63" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H63">
         <v>539716716962</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J63" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K63" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4298,28 +4296,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
+        <v>525</v>
+      </c>
+      <c r="E64" t="s">
         <v>213</v>
       </c>
-      <c r="E64" t="s">
-        <v>218</v>
-      </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G64" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H64">
         <v>663727264593</v>
       </c>
       <c r="I64" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J64" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K64" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4333,28 +4331,28 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F65" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G65" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H65">
         <v>114969427073</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J65" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4368,28 +4366,28 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G66" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H66">
         <v>283175382966</v>
       </c>
       <c r="I66" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J66" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K66" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4403,28 +4401,28 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G67" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H67">
         <v>178944104188</v>
       </c>
       <c r="I67" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K67" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4438,28 +4436,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
+        <v>525</v>
+      </c>
+      <c r="E68" t="s">
         <v>213</v>
       </c>
-      <c r="E68" t="s">
-        <v>218</v>
-      </c>
       <c r="F68" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G68" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H68">
         <v>896075448848</v>
       </c>
       <c r="I68" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J68" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K68" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4473,28 +4471,28 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H69">
         <v>292599663761</v>
       </c>
       <c r="I69" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J69" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K69" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4508,28 +4506,28 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G70" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H70">
         <v>675046921235</v>
       </c>
       <c r="I70" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J70" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K70" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4543,28 +4541,28 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H71">
         <v>352554719145</v>
       </c>
       <c r="I71" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J71" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K71" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4578,28 +4576,28 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H72">
         <v>109798335793</v>
       </c>
       <c r="I72" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J72" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K72" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4613,28 +4611,28 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G73" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H73">
         <v>396867183272</v>
       </c>
       <c r="I73" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J73" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K73" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4648,28 +4646,28 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G74" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H74">
         <v>606208023697</v>
       </c>
       <c r="I74" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J74" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K74" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4683,28 +4681,28 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
+        <v>525</v>
+      </c>
+      <c r="E75" t="s">
         <v>212</v>
       </c>
-      <c r="E75" t="s">
-        <v>217</v>
-      </c>
       <c r="F75" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G75" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H75">
         <v>371774400623</v>
       </c>
       <c r="I75" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J75" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K75" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4718,28 +4716,28 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G76" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H76">
         <v>653380274106</v>
       </c>
       <c r="I76" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J76" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K76" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4753,28 +4751,28 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
+        <v>525</v>
+      </c>
+      <c r="E77" t="s">
         <v>213</v>
       </c>
-      <c r="E77" t="s">
-        <v>218</v>
-      </c>
       <c r="F77" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G77" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H77">
         <v>647767630124</v>
       </c>
       <c r="I77" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J77" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K77" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4788,28 +4786,28 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E78" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G78" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H78">
         <v>940663628703</v>
       </c>
       <c r="I78" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J78" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K78" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4823,28 +4821,28 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G79" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H79">
         <v>235281864271</v>
       </c>
       <c r="I79" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J79" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K79" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4858,28 +4856,28 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F80" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G80" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H80">
         <v>124655591663</v>
       </c>
       <c r="I80" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J80" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K80" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4893,28 +4891,28 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E81" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G81" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H81">
         <v>426994426676</v>
       </c>
       <c r="I81" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J81" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K81" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4928,28 +4926,28 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
+        <v>525</v>
+      </c>
+      <c r="E82" t="s">
         <v>211</v>
       </c>
-      <c r="E82" t="s">
-        <v>216</v>
-      </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G82" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H82">
         <v>542054283115</v>
       </c>
       <c r="I82" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J82" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K82" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4963,28 +4961,28 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G83" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H83">
         <v>975343657768</v>
       </c>
       <c r="I83" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J83" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4998,28 +4996,28 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="E84" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G84" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H84">
         <v>849025645768</v>
       </c>
       <c r="I84" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J84" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K84" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5033,28 +5031,28 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G85" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H85">
         <v>849944420137</v>
       </c>
       <c r="I85" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J85" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K85" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5068,28 +5066,28 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
+        <v>525</v>
+      </c>
+      <c r="E86" t="s">
         <v>213</v>
       </c>
-      <c r="E86" t="s">
-        <v>218</v>
-      </c>
       <c r="F86" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G86" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H86">
         <v>945851345217</v>
       </c>
       <c r="I86" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J86" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K86" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5103,28 +5101,28 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G87" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H87">
         <v>232347527319</v>
       </c>
       <c r="I87" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J87" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K87" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5138,28 +5136,28 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G88" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H88">
         <v>451429459451</v>
       </c>
       <c r="I88" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J88" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K88" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5173,28 +5171,28 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F89" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G89" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H89">
         <v>576939014732</v>
       </c>
       <c r="I89" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J89" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K89" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5208,28 +5206,28 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G90" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H90">
         <v>620748854885</v>
       </c>
       <c r="I90" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J90" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K90" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5243,28 +5241,28 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F91" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G91" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H91">
         <v>471621101897</v>
       </c>
       <c r="I91" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J91" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K91" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5278,28 +5276,28 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E92" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G92" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H92">
         <v>324642682499</v>
       </c>
       <c r="I92" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J92" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K92" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5313,28 +5311,28 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G93" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H93">
         <v>633322462323</v>
       </c>
       <c r="I93" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J93" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K93" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5348,28 +5346,28 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
+        <v>525</v>
+      </c>
+      <c r="E94" t="s">
         <v>213</v>
       </c>
-      <c r="E94" t="s">
-        <v>218</v>
-      </c>
       <c r="F94" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G94" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H94">
         <v>926476616136</v>
       </c>
       <c r="I94" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J94" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K94" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5383,28 +5381,28 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
+        <v>525</v>
+      </c>
+      <c r="E95" t="s">
         <v>213</v>
       </c>
-      <c r="E95" t="s">
-        <v>218</v>
-      </c>
       <c r="F95" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G95" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H95">
         <v>148430939841</v>
       </c>
       <c r="I95" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J95" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K95" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5418,28 +5416,28 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F96" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G96" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H96">
         <v>176347248109</v>
       </c>
       <c r="I96" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J96" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K96" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5453,28 +5451,28 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E97" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G97" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H97">
         <v>362078731018</v>
       </c>
       <c r="I97" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J97" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K97" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5488,28 +5486,28 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="E98" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H98">
         <v>357518411061</v>
       </c>
       <c r="I98" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J98" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K98" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5523,28 +5521,28 @@
         <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>525</v>
       </c>
       <c r="E99" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G99" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H99">
         <v>487850252122</v>
       </c>
       <c r="I99" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J99" t="s">
+        <v>513</v>
+      </c>
+      <c r="K99" t="s">
         <v>518</v>
-      </c>
-      <c r="K99" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5558,28 +5556,28 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>525</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H100">
         <v>499266611188</v>
       </c>
       <c r="I100" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J100" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K100" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5593,28 +5591,28 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>214</v>
+        <v>525</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F101" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H101">
         <v>983969674177</v>
       </c>
       <c r="I101" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J101" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K101" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064960E-7353-4FE7-9008-F463CF90A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C3F436-8719-4E3C-9508-CD2EFA69FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="523">
   <si>
     <t>emp_id</t>
   </si>
@@ -1673,24 +1673,12 @@
     <t>8G</t>
   </si>
   <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>8B</t>
   </si>
   <si>
     <t>8A</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>8C</t>
   </si>
   <si>
@@ -1698,13 +1686,16 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,6 +1711,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1729,7 +1726,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1752,14 +1749,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,7 +2150,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2126,7 +2159,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
         <v>210</v>
@@ -2146,7 +2179,7 @@
       <c r="J2" t="s">
         <v>416</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2161,7 +2194,7 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E3" t="s">
         <v>211</v>
@@ -2181,8 +2214,8 @@
       <c r="J3" t="s">
         <v>417</v>
       </c>
-      <c r="K3" t="s">
-        <v>516</v>
+      <c r="K3" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2196,7 +2229,7 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
         <v>210</v>
@@ -2216,8 +2249,8 @@
       <c r="J4" t="s">
         <v>418</v>
       </c>
-      <c r="K4" t="s">
-        <v>517</v>
+      <c r="K4" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2231,7 +2264,7 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E5" t="s">
         <v>210</v>
@@ -2251,7 +2284,7 @@
       <c r="J5" t="s">
         <v>419</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2266,7 +2299,7 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E6" t="s">
         <v>211</v>
@@ -2286,8 +2319,8 @@
       <c r="J6" t="s">
         <v>420</v>
       </c>
-      <c r="K6" t="s">
-        <v>518</v>
+      <c r="K6" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2301,7 +2334,7 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E7" t="s">
         <v>210</v>
@@ -2321,8 +2354,8 @@
       <c r="J7" t="s">
         <v>421</v>
       </c>
-      <c r="K7" t="s">
-        <v>519</v>
+      <c r="K7" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2336,7 +2369,7 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
         <v>210</v>
@@ -2356,8 +2389,8 @@
       <c r="J8" t="s">
         <v>422</v>
       </c>
-      <c r="K8" t="s">
-        <v>518</v>
+      <c r="K8" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2371,7 +2404,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E9" t="s">
         <v>212</v>
@@ -2391,11 +2424,11 @@
       <c r="J9" t="s">
         <v>423</v>
       </c>
-      <c r="K9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2406,7 +2439,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
         <v>210</v>
@@ -2426,11 +2459,11 @@
       <c r="J10" t="s">
         <v>424</v>
       </c>
-      <c r="K10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2441,7 +2474,7 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
         <v>212</v>
@@ -2461,8 +2494,8 @@
       <c r="J11" t="s">
         <v>425</v>
       </c>
-      <c r="K11" t="s">
-        <v>519</v>
+      <c r="K11" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2476,7 +2509,7 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
         <v>211</v>
@@ -2496,7 +2529,7 @@
       <c r="J12" t="s">
         <v>426</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -2511,7 +2544,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E13" t="s">
         <v>211</v>
@@ -2531,8 +2564,8 @@
       <c r="J13" t="s">
         <v>427</v>
       </c>
-      <c r="K13" t="s">
-        <v>521</v>
+      <c r="K13" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2546,7 +2579,7 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
         <v>213</v>
@@ -2566,8 +2599,8 @@
       <c r="J14" t="s">
         <v>428</v>
       </c>
-      <c r="K14" t="s">
-        <v>519</v>
+      <c r="K14" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2581,7 +2614,7 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E15" t="s">
         <v>210</v>
@@ -2601,8 +2634,8 @@
       <c r="J15" t="s">
         <v>429</v>
       </c>
-      <c r="K15" t="s">
-        <v>522</v>
+      <c r="K15" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2616,7 +2649,7 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E16" t="s">
         <v>211</v>
@@ -2636,8 +2669,8 @@
       <c r="J16" t="s">
         <v>430</v>
       </c>
-      <c r="K16" t="s">
-        <v>521</v>
+      <c r="K16" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2651,7 +2684,7 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E17" t="s">
         <v>212</v>
@@ -2671,8 +2704,8 @@
       <c r="J17" t="s">
         <v>431</v>
       </c>
-      <c r="K17" t="s">
-        <v>519</v>
+      <c r="K17" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2686,7 +2719,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E18" t="s">
         <v>213</v>
@@ -2706,8 +2739,8 @@
       <c r="J18" t="s">
         <v>432</v>
       </c>
-      <c r="K18" t="s">
-        <v>519</v>
+      <c r="K18" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2721,7 +2754,7 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E19" t="s">
         <v>211</v>
@@ -2741,8 +2774,8 @@
       <c r="J19" t="s">
         <v>433</v>
       </c>
-      <c r="K19" t="s">
-        <v>520</v>
+      <c r="K19" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2756,7 +2789,7 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
         <v>210</v>
@@ -2776,8 +2809,8 @@
       <c r="J20" t="s">
         <v>434</v>
       </c>
-      <c r="K20" t="s">
-        <v>518</v>
+      <c r="K20" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2791,7 +2824,7 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E21" t="s">
         <v>212</v>
@@ -2811,8 +2844,8 @@
       <c r="J21" t="s">
         <v>435</v>
       </c>
-      <c r="K21" t="s">
-        <v>521</v>
+      <c r="K21" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2826,7 +2859,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E22" t="s">
         <v>211</v>
@@ -2846,8 +2879,8 @@
       <c r="J22" t="s">
         <v>436</v>
       </c>
-      <c r="K22" t="s">
-        <v>518</v>
+      <c r="K22" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2861,7 +2894,7 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E23" t="s">
         <v>213</v>
@@ -2881,8 +2914,8 @@
       <c r="J23" t="s">
         <v>437</v>
       </c>
-      <c r="K23" t="s">
-        <v>523</v>
+      <c r="K23" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2896,7 +2929,7 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
         <v>212</v>
@@ -2916,8 +2949,8 @@
       <c r="J24" t="s">
         <v>438</v>
       </c>
-      <c r="K24" t="s">
-        <v>521</v>
+      <c r="K24" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2931,7 +2964,7 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E25" t="s">
         <v>213</v>
@@ -2951,8 +2984,8 @@
       <c r="J25" t="s">
         <v>439</v>
       </c>
-      <c r="K25" t="s">
-        <v>520</v>
+      <c r="K25" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2966,7 +2999,7 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
@@ -2986,8 +3019,8 @@
       <c r="J26" t="s">
         <v>440</v>
       </c>
-      <c r="K26" t="s">
-        <v>521</v>
+      <c r="K26" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3001,7 +3034,7 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E27" t="s">
         <v>210</v>
@@ -3021,8 +3054,8 @@
       <c r="J27" t="s">
         <v>441</v>
       </c>
-      <c r="K27" t="s">
-        <v>523</v>
+      <c r="K27" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3036,7 +3069,7 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E28" t="s">
         <v>212</v>
@@ -3056,8 +3089,8 @@
       <c r="J28" t="s">
         <v>442</v>
       </c>
-      <c r="K28" t="s">
-        <v>523</v>
+      <c r="K28" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3071,7 +3104,7 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
@@ -3091,11 +3124,11 @@
       <c r="J29" t="s">
         <v>443</v>
       </c>
-      <c r="K29" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3106,7 +3139,7 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -3126,11 +3159,11 @@
       <c r="J30" t="s">
         <v>444</v>
       </c>
-      <c r="K30" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3141,7 +3174,7 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
@@ -3161,7 +3194,7 @@
       <c r="J31" t="s">
         <v>445</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="3" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3176,7 +3209,7 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E32" t="s">
         <v>210</v>
@@ -3196,8 +3229,8 @@
       <c r="J32" t="s">
         <v>446</v>
       </c>
-      <c r="K32" t="s">
-        <v>520</v>
+      <c r="K32" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3211,7 +3244,7 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
         <v>212</v>
@@ -3231,8 +3264,8 @@
       <c r="J33" t="s">
         <v>447</v>
       </c>
-      <c r="K33" t="s">
-        <v>523</v>
+      <c r="K33" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,7 +3279,7 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E34" t="s">
         <v>213</v>
@@ -3266,8 +3299,8 @@
       <c r="J34" t="s">
         <v>448</v>
       </c>
-      <c r="K34" t="s">
-        <v>523</v>
+      <c r="K34" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3281,7 +3314,7 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E35" t="s">
         <v>213</v>
@@ -3301,8 +3334,8 @@
       <c r="J35" t="s">
         <v>449</v>
       </c>
-      <c r="K35" t="s">
-        <v>519</v>
+      <c r="K35" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3316,7 +3349,7 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E36" t="s">
         <v>210</v>
@@ -3336,8 +3369,8 @@
       <c r="J36" t="s">
         <v>450</v>
       </c>
-      <c r="K36" t="s">
-        <v>517</v>
+      <c r="K36" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3351,7 +3384,7 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E37" t="s">
         <v>211</v>
@@ -3371,8 +3404,8 @@
       <c r="J37" t="s">
         <v>451</v>
       </c>
-      <c r="K37" t="s">
-        <v>517</v>
+      <c r="K37" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3386,7 +3419,7 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E38" t="s">
         <v>212</v>
@@ -3406,8 +3439,8 @@
       <c r="J38" t="s">
         <v>452</v>
       </c>
-      <c r="K38" t="s">
-        <v>516</v>
+      <c r="K38" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3421,7 +3454,7 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E39" t="s">
         <v>211</v>
@@ -3441,8 +3474,8 @@
       <c r="J39" t="s">
         <v>453</v>
       </c>
-      <c r="K39" t="s">
-        <v>522</v>
+      <c r="K39" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3456,7 +3489,7 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E40" t="s">
         <v>210</v>
@@ -3476,8 +3509,8 @@
       <c r="J40" t="s">
         <v>454</v>
       </c>
-      <c r="K40" t="s">
-        <v>520</v>
+      <c r="K40" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3491,7 +3524,7 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E41" t="s">
         <v>211</v>
@@ -3511,8 +3544,8 @@
       <c r="J41" t="s">
         <v>455</v>
       </c>
-      <c r="K41" t="s">
-        <v>519</v>
+      <c r="K41" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3526,7 +3559,7 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E42" t="s">
         <v>212</v>
@@ -3546,8 +3579,8 @@
       <c r="J42" t="s">
         <v>456</v>
       </c>
-      <c r="K42" t="s">
-        <v>517</v>
+      <c r="K42" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3561,7 +3594,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
@@ -3581,8 +3614,8 @@
       <c r="J43" t="s">
         <v>457</v>
       </c>
-      <c r="K43" t="s">
-        <v>523</v>
+      <c r="K43" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3596,7 +3629,7 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E44" t="s">
         <v>212</v>
@@ -3616,7 +3649,7 @@
       <c r="J44" t="s">
         <v>458</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -3631,7 +3664,7 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E45" t="s">
         <v>213</v>
@@ -3651,8 +3684,8 @@
       <c r="J45" t="s">
         <v>459</v>
       </c>
-      <c r="K45" t="s">
-        <v>522</v>
+      <c r="K45" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3699,7 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E46" t="s">
         <v>213</v>
@@ -3686,8 +3719,8 @@
       <c r="J46" t="s">
         <v>460</v>
       </c>
-      <c r="K46" t="s">
-        <v>519</v>
+      <c r="K46" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3701,7 +3734,7 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E47" t="s">
         <v>212</v>
@@ -3721,8 +3754,8 @@
       <c r="J47" t="s">
         <v>461</v>
       </c>
-      <c r="K47" t="s">
-        <v>521</v>
+      <c r="K47" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,7 +3769,7 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E48" t="s">
         <v>210</v>
@@ -3756,8 +3789,8 @@
       <c r="J48" t="s">
         <v>462</v>
       </c>
-      <c r="K48" t="s">
-        <v>518</v>
+      <c r="K48" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3771,7 +3804,7 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E49" t="s">
         <v>211</v>
@@ -3791,11 +3824,11 @@
       <c r="J49" t="s">
         <v>463</v>
       </c>
-      <c r="K49" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E50" t="s">
         <v>211</v>
@@ -3826,11 +3859,11 @@
       <c r="J50" t="s">
         <v>464</v>
       </c>
-      <c r="K50" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3841,7 +3874,7 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E51" t="s">
         <v>213</v>
@@ -3861,8 +3894,8 @@
       <c r="J51" t="s">
         <v>465</v>
       </c>
-      <c r="K51" t="s">
-        <v>518</v>
+      <c r="K51" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3876,7 +3909,7 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E52" t="s">
         <v>211</v>
@@ -3896,7 +3929,7 @@
       <c r="J52" t="s">
         <v>466</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3911,7 +3944,7 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E53" t="s">
         <v>210</v>
@@ -3931,8 +3964,8 @@
       <c r="J53" t="s">
         <v>467</v>
       </c>
-      <c r="K53" t="s">
-        <v>523</v>
+      <c r="K53" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3946,7 +3979,7 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E54" t="s">
         <v>212</v>
@@ -3966,8 +3999,8 @@
       <c r="J54" t="s">
         <v>468</v>
       </c>
-      <c r="K54" t="s">
-        <v>516</v>
+      <c r="K54" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3981,7 +4014,7 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E55" t="s">
         <v>211</v>
@@ -4001,8 +4034,8 @@
       <c r="J55" t="s">
         <v>469</v>
       </c>
-      <c r="K55" t="s">
-        <v>523</v>
+      <c r="K55" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4016,7 +4049,7 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E56" t="s">
         <v>213</v>
@@ -4036,8 +4069,8 @@
       <c r="J56" t="s">
         <v>470</v>
       </c>
-      <c r="K56" t="s">
-        <v>522</v>
+      <c r="K56" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4051,7 +4084,7 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E57" t="s">
         <v>210</v>
@@ -4071,8 +4104,8 @@
       <c r="J57" t="s">
         <v>471</v>
       </c>
-      <c r="K57" t="s">
-        <v>517</v>
+      <c r="K57" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4086,7 +4119,7 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E58" t="s">
         <v>211</v>
@@ -4106,8 +4139,8 @@
       <c r="J58" t="s">
         <v>472</v>
       </c>
-      <c r="K58" t="s">
-        <v>520</v>
+      <c r="K58" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4121,7 +4154,7 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E59" t="s">
         <v>212</v>
@@ -4141,8 +4174,8 @@
       <c r="J59" t="s">
         <v>473</v>
       </c>
-      <c r="K59" t="s">
-        <v>517</v>
+      <c r="K59" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4156,7 +4189,7 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E60" t="s">
         <v>212</v>
@@ -4176,8 +4209,8 @@
       <c r="J60" t="s">
         <v>474</v>
       </c>
-      <c r="K60" t="s">
-        <v>518</v>
+      <c r="K60" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4191,7 +4224,7 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E61" t="s">
         <v>211</v>
@@ -4211,8 +4244,8 @@
       <c r="J61" t="s">
         <v>475</v>
       </c>
-      <c r="K61" t="s">
-        <v>519</v>
+      <c r="K61" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4226,7 +4259,7 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E62" t="s">
         <v>212</v>
@@ -4246,7 +4279,7 @@
       <c r="J62" t="s">
         <v>476</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4261,7 +4294,7 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E63" t="s">
         <v>211</v>
@@ -4281,8 +4314,8 @@
       <c r="J63" t="s">
         <v>477</v>
       </c>
-      <c r="K63" t="s">
-        <v>516</v>
+      <c r="K63" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,7 +4329,7 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E64" t="s">
         <v>213</v>
@@ -4316,8 +4349,8 @@
       <c r="J64" t="s">
         <v>478</v>
       </c>
-      <c r="K64" t="s">
-        <v>517</v>
+      <c r="K64" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4331,7 +4364,7 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E65" t="s">
         <v>213</v>
@@ -4351,7 +4384,7 @@
       <c r="J65" t="s">
         <v>479</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4366,7 +4399,7 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E66" t="s">
         <v>212</v>
@@ -4386,7 +4419,7 @@
       <c r="J66" t="s">
         <v>480</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="2" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4401,7 +4434,7 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E67" t="s">
         <v>212</v>
@@ -4421,8 +4454,8 @@
       <c r="J67" t="s">
         <v>481</v>
       </c>
-      <c r="K67" t="s">
-        <v>519</v>
+      <c r="K67" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4436,7 +4469,7 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E68" t="s">
         <v>213</v>
@@ -4456,8 +4489,8 @@
       <c r="J68" t="s">
         <v>482</v>
       </c>
-      <c r="K68" t="s">
-        <v>517</v>
+      <c r="K68" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4471,7 +4504,7 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E69" t="s">
         <v>210</v>
@@ -4491,11 +4524,11 @@
       <c r="J69" t="s">
         <v>483</v>
       </c>
-      <c r="K69" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E70" t="s">
         <v>210</v>
@@ -4526,11 +4559,11 @@
       <c r="J70" t="s">
         <v>484</v>
       </c>
-      <c r="K70" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4541,7 +4574,7 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
@@ -4561,7 +4594,7 @@
       <c r="J71" t="s">
         <v>485</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="3" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4576,7 +4609,7 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
@@ -4596,8 +4629,8 @@
       <c r="J72" t="s">
         <v>486</v>
       </c>
-      <c r="K72" t="s">
-        <v>518</v>
+      <c r="K72" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4611,7 +4644,7 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E73" t="s">
         <v>211</v>
@@ -4631,8 +4664,8 @@
       <c r="J73" t="s">
         <v>487</v>
       </c>
-      <c r="K73" t="s">
-        <v>521</v>
+      <c r="K73" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4646,7 +4679,7 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E74" t="s">
         <v>210</v>
@@ -4666,7 +4699,7 @@
       <c r="J74" t="s">
         <v>488</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="2" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4681,7 +4714,7 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E75" t="s">
         <v>212</v>
@@ -4701,8 +4734,8 @@
       <c r="J75" t="s">
         <v>489</v>
       </c>
-      <c r="K75" t="s">
-        <v>523</v>
+      <c r="K75" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4716,7 +4749,7 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E76" t="s">
         <v>211</v>
@@ -4736,8 +4769,8 @@
       <c r="J76" t="s">
         <v>490</v>
       </c>
-      <c r="K76" t="s">
-        <v>521</v>
+      <c r="K76" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4751,7 +4784,7 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E77" t="s">
         <v>213</v>
@@ -4771,8 +4804,8 @@
       <c r="J77" t="s">
         <v>491</v>
       </c>
-      <c r="K77" t="s">
-        <v>523</v>
+      <c r="K77" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4786,7 +4819,7 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E78" t="s">
         <v>210</v>
@@ -4806,7 +4839,7 @@
       <c r="J78" t="s">
         <v>492</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4821,7 +4854,7 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E79" t="s">
         <v>211</v>
@@ -4841,8 +4874,8 @@
       <c r="J79" t="s">
         <v>493</v>
       </c>
-      <c r="K79" t="s">
-        <v>520</v>
+      <c r="K79" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4856,7 +4889,7 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E80" t="s">
         <v>213</v>
@@ -4876,8 +4909,8 @@
       <c r="J80" t="s">
         <v>494</v>
       </c>
-      <c r="K80" t="s">
-        <v>517</v>
+      <c r="K80" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4891,7 +4924,7 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E81" t="s">
         <v>210</v>
@@ -4911,8 +4944,8 @@
       <c r="J81" t="s">
         <v>495</v>
       </c>
-      <c r="K81" t="s">
-        <v>521</v>
+      <c r="K81" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4926,7 +4959,7 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E82" t="s">
         <v>211</v>
@@ -4946,8 +4979,8 @@
       <c r="J82" t="s">
         <v>496</v>
       </c>
-      <c r="K82" t="s">
-        <v>517</v>
+      <c r="K82" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4961,7 +4994,7 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E83" t="s">
         <v>210</v>
@@ -4981,8 +5014,8 @@
       <c r="J83" t="s">
         <v>497</v>
       </c>
-      <c r="K83" t="s">
-        <v>521</v>
+      <c r="K83" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4996,7 +5029,7 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E84" t="s">
         <v>211</v>
@@ -5016,8 +5049,8 @@
       <c r="J84" t="s">
         <v>498</v>
       </c>
-      <c r="K84" t="s">
-        <v>521</v>
+      <c r="K84" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5031,7 +5064,7 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E85" t="s">
         <v>212</v>
@@ -5051,8 +5084,8 @@
       <c r="J85" t="s">
         <v>499</v>
       </c>
-      <c r="K85" t="s">
-        <v>520</v>
+      <c r="K85" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5066,7 +5099,7 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E86" t="s">
         <v>213</v>
@@ -5086,8 +5119,8 @@
       <c r="J86" t="s">
         <v>500</v>
       </c>
-      <c r="K86" t="s">
-        <v>522</v>
+      <c r="K86" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5101,7 +5134,7 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E87" t="s">
         <v>213</v>
@@ -5121,7 +5154,7 @@
       <c r="J87" t="s">
         <v>501</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="2" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5136,7 +5169,7 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E88" t="s">
         <v>211</v>
@@ -5156,8 +5189,8 @@
       <c r="J88" t="s">
         <v>502</v>
       </c>
-      <c r="K88" t="s">
-        <v>518</v>
+      <c r="K88" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5171,7 +5204,7 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E89" t="s">
         <v>212</v>
@@ -5191,11 +5224,11 @@
       <c r="J89" t="s">
         <v>503</v>
       </c>
-      <c r="K89" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5206,7 +5239,7 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E90" t="s">
         <v>210</v>
@@ -5226,11 +5259,11 @@
       <c r="J90" t="s">
         <v>504</v>
       </c>
-      <c r="K90" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5241,7 +5274,7 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E91" t="s">
         <v>213</v>
@@ -5261,8 +5294,8 @@
       <c r="J91" t="s">
         <v>505</v>
       </c>
-      <c r="K91" t="s">
-        <v>516</v>
+      <c r="K91" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5276,7 +5309,7 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E92" t="s">
         <v>213</v>
@@ -5296,8 +5329,8 @@
       <c r="J92" t="s">
         <v>506</v>
       </c>
-      <c r="K92" t="s">
-        <v>520</v>
+      <c r="K92" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5311,7 +5344,7 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E93" t="s">
         <v>212</v>
@@ -5331,8 +5364,8 @@
       <c r="J93" t="s">
         <v>507</v>
       </c>
-      <c r="K93" t="s">
-        <v>518</v>
+      <c r="K93" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5346,7 +5379,7 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E94" t="s">
         <v>213</v>
@@ -5366,8 +5399,8 @@
       <c r="J94" t="s">
         <v>508</v>
       </c>
-      <c r="K94" t="s">
-        <v>517</v>
+      <c r="K94" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5381,7 +5414,7 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E95" t="s">
         <v>213</v>
@@ -5401,8 +5434,8 @@
       <c r="J95" t="s">
         <v>509</v>
       </c>
-      <c r="K95" t="s">
-        <v>523</v>
+      <c r="K95" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5416,7 +5449,7 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E96" t="s">
         <v>211</v>
@@ -5436,8 +5469,8 @@
       <c r="J96" t="s">
         <v>510</v>
       </c>
-      <c r="K96" t="s">
-        <v>518</v>
+      <c r="K96" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5451,7 +5484,7 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E97" t="s">
         <v>210</v>
@@ -5471,8 +5504,8 @@
       <c r="J97" t="s">
         <v>511</v>
       </c>
-      <c r="K97" t="s">
-        <v>523</v>
+      <c r="K97" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5486,7 +5519,7 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E98" t="s">
         <v>212</v>
@@ -5506,8 +5539,8 @@
       <c r="J98" t="s">
         <v>512</v>
       </c>
-      <c r="K98" t="s">
-        <v>521</v>
+      <c r="K98" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5521,7 +5554,7 @@
         <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E99" t="s">
         <v>210</v>
@@ -5541,8 +5574,8 @@
       <c r="J99" t="s">
         <v>513</v>
       </c>
-      <c r="K99" t="s">
-        <v>518</v>
+      <c r="K99" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5556,7 +5589,7 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E100" t="s">
         <v>211</v>
@@ -5576,8 +5609,8 @@
       <c r="J100" t="s">
         <v>514</v>
       </c>
-      <c r="K100" t="s">
-        <v>522</v>
+      <c r="K100" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5591,7 +5624,7 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E101" t="s">
         <v>213</v>
@@ -5611,8 +5644,8 @@
       <c r="J101" t="s">
         <v>515</v>
       </c>
-      <c r="K101" t="s">
-        <v>516</v>
+      <c r="K101" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkl\Final Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4064960E-7353-4FE7-9008-F463CF90A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8C5BF-F91C-4693-9645-40ECB44E47FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="522">
   <si>
     <t>emp_id</t>
   </si>
@@ -1670,27 +1670,12 @@
 East Gary, MA 17307</t>
   </si>
   <si>
-    <t>8G</t>
-  </si>
-  <si>
-    <t>12A</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>8B</t>
   </si>
   <si>
     <t>8A</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>8C</t>
   </si>
   <si>
@@ -1698,13 +1683,16 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1720,6 +1708,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1729,7 +1723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1752,14 +1746,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,7 +2147,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2126,7 +2156,7 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
         <v>210</v>
@@ -2146,8 +2176,8 @@
       <c r="J2" t="s">
         <v>416</v>
       </c>
-      <c r="K2" t="s">
-        <v>516</v>
+      <c r="K2" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2161,7 +2191,7 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E3" t="s">
         <v>211</v>
@@ -2181,8 +2211,8 @@
       <c r="J3" t="s">
         <v>417</v>
       </c>
-      <c r="K3" t="s">
-        <v>516</v>
+      <c r="K3" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2196,7 +2226,7 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E4" t="s">
         <v>210</v>
@@ -2216,7 +2246,7 @@
       <c r="J4" t="s">
         <v>418</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -2231,7 +2261,7 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E5" t="s">
         <v>210</v>
@@ -2251,8 +2281,8 @@
       <c r="J5" t="s">
         <v>419</v>
       </c>
-      <c r="K5" t="s">
-        <v>516</v>
+      <c r="K5" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2266,7 +2296,7 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E6" t="s">
         <v>211</v>
@@ -2286,8 +2316,8 @@
       <c r="J6" t="s">
         <v>420</v>
       </c>
-      <c r="K6" t="s">
-        <v>518</v>
+      <c r="K6" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2301,7 +2331,7 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E7" t="s">
         <v>210</v>
@@ -2321,8 +2351,8 @@
       <c r="J7" t="s">
         <v>421</v>
       </c>
-      <c r="K7" t="s">
-        <v>519</v>
+      <c r="K7" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2336,7 +2366,7 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E8" t="s">
         <v>210</v>
@@ -2356,7 +2386,7 @@
       <c r="J8" t="s">
         <v>422</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -2371,7 +2401,7 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E9" t="s">
         <v>212</v>
@@ -2391,11 +2421,11 @@
       <c r="J9" t="s">
         <v>423</v>
       </c>
-      <c r="K9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2406,7 +2436,7 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E10" t="s">
         <v>210</v>
@@ -2426,11 +2456,11 @@
       <c r="J10" t="s">
         <v>424</v>
       </c>
-      <c r="K10" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2441,7 +2471,7 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E11" t="s">
         <v>212</v>
@@ -2461,8 +2491,8 @@
       <c r="J11" t="s">
         <v>425</v>
       </c>
-      <c r="K11" t="s">
-        <v>519</v>
+      <c r="K11" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2476,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E12" t="s">
         <v>211</v>
@@ -2496,8 +2526,8 @@
       <c r="J12" t="s">
         <v>426</v>
       </c>
-      <c r="K12" t="s">
-        <v>517</v>
+      <c r="K12" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2511,7 +2541,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E13" t="s">
         <v>211</v>
@@ -2531,7 +2561,7 @@
       <c r="J13" t="s">
         <v>427</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>521</v>
       </c>
     </row>
@@ -2546,7 +2576,7 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E14" t="s">
         <v>213</v>
@@ -2566,8 +2596,8 @@
       <c r="J14" t="s">
         <v>428</v>
       </c>
-      <c r="K14" t="s">
-        <v>519</v>
+      <c r="K14" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2581,7 +2611,7 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E15" t="s">
         <v>210</v>
@@ -2601,8 +2631,8 @@
       <c r="J15" t="s">
         <v>429</v>
       </c>
-      <c r="K15" t="s">
-        <v>522</v>
+      <c r="K15" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2616,7 +2646,7 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E16" t="s">
         <v>211</v>
@@ -2636,8 +2666,8 @@
       <c r="J16" t="s">
         <v>430</v>
       </c>
-      <c r="K16" t="s">
-        <v>521</v>
+      <c r="K16" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2651,7 +2681,7 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E17" t="s">
         <v>212</v>
@@ -2671,8 +2701,8 @@
       <c r="J17" t="s">
         <v>431</v>
       </c>
-      <c r="K17" t="s">
-        <v>519</v>
+      <c r="K17" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2686,7 +2716,7 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E18" t="s">
         <v>213</v>
@@ -2706,8 +2736,8 @@
       <c r="J18" t="s">
         <v>432</v>
       </c>
-      <c r="K18" t="s">
-        <v>519</v>
+      <c r="K18" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2721,7 +2751,7 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E19" t="s">
         <v>211</v>
@@ -2741,8 +2771,8 @@
       <c r="J19" t="s">
         <v>433</v>
       </c>
-      <c r="K19" t="s">
-        <v>520</v>
+      <c r="K19" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2756,7 +2786,7 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E20" t="s">
         <v>210</v>
@@ -2776,7 +2806,7 @@
       <c r="J20" t="s">
         <v>434</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -2791,7 +2821,7 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E21" t="s">
         <v>212</v>
@@ -2811,8 +2841,8 @@
       <c r="J21" t="s">
         <v>435</v>
       </c>
-      <c r="K21" t="s">
-        <v>521</v>
+      <c r="K21" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2826,7 +2856,7 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E22" t="s">
         <v>211</v>
@@ -2846,8 +2876,8 @@
       <c r="J22" t="s">
         <v>436</v>
       </c>
-      <c r="K22" t="s">
-        <v>518</v>
+      <c r="K22" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2861,7 +2891,7 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E23" t="s">
         <v>213</v>
@@ -2881,8 +2911,8 @@
       <c r="J23" t="s">
         <v>437</v>
       </c>
-      <c r="K23" t="s">
-        <v>523</v>
+      <c r="K23" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2896,7 +2926,7 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E24" t="s">
         <v>212</v>
@@ -2916,8 +2946,8 @@
       <c r="J24" t="s">
         <v>438</v>
       </c>
-      <c r="K24" t="s">
-        <v>521</v>
+      <c r="K24" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2931,7 +2961,7 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E25" t="s">
         <v>213</v>
@@ -2951,8 +2981,8 @@
       <c r="J25" t="s">
         <v>439</v>
       </c>
-      <c r="K25" t="s">
-        <v>520</v>
+      <c r="K25" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2966,7 +2996,7 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
@@ -2986,8 +3016,8 @@
       <c r="J26" t="s">
         <v>440</v>
       </c>
-      <c r="K26" t="s">
-        <v>521</v>
+      <c r="K26" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3001,7 +3031,7 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E27" t="s">
         <v>210</v>
@@ -3021,8 +3051,8 @@
       <c r="J27" t="s">
         <v>441</v>
       </c>
-      <c r="K27" t="s">
-        <v>523</v>
+      <c r="K27" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3036,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E28" t="s">
         <v>212</v>
@@ -3056,8 +3086,8 @@
       <c r="J28" t="s">
         <v>442</v>
       </c>
-      <c r="K28" t="s">
-        <v>523</v>
+      <c r="K28" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3071,7 +3101,7 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
@@ -3091,11 +3121,11 @@
       <c r="J29" t="s">
         <v>443</v>
       </c>
-      <c r="K29" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3106,7 +3136,7 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
@@ -3126,11 +3156,11 @@
       <c r="J30" t="s">
         <v>444</v>
       </c>
-      <c r="K30" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3141,7 +3171,7 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
@@ -3161,8 +3191,8 @@
       <c r="J31" t="s">
         <v>445</v>
       </c>
-      <c r="K31" t="s">
-        <v>517</v>
+      <c r="K31" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3176,7 +3206,7 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E32" t="s">
         <v>210</v>
@@ -3196,8 +3226,8 @@
       <c r="J32" t="s">
         <v>446</v>
       </c>
-      <c r="K32" t="s">
-        <v>520</v>
+      <c r="K32" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3211,7 +3241,7 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E33" t="s">
         <v>212</v>
@@ -3231,8 +3261,8 @@
       <c r="J33" t="s">
         <v>447</v>
       </c>
-      <c r="K33" t="s">
-        <v>523</v>
+      <c r="K33" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,7 +3276,7 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E34" t="s">
         <v>213</v>
@@ -3266,8 +3296,8 @@
       <c r="J34" t="s">
         <v>448</v>
       </c>
-      <c r="K34" t="s">
-        <v>523</v>
+      <c r="K34" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3281,7 +3311,7 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E35" t="s">
         <v>213</v>
@@ -3301,8 +3331,8 @@
       <c r="J35" t="s">
         <v>449</v>
       </c>
-      <c r="K35" t="s">
-        <v>519</v>
+      <c r="K35" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3316,7 +3346,7 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E36" t="s">
         <v>210</v>
@@ -3336,7 +3366,7 @@
       <c r="J36" t="s">
         <v>450</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3351,7 +3381,7 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E37" t="s">
         <v>211</v>
@@ -3371,8 +3401,8 @@
       <c r="J37" t="s">
         <v>451</v>
       </c>
-      <c r="K37" t="s">
-        <v>517</v>
+      <c r="K37" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3386,7 +3416,7 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E38" t="s">
         <v>212</v>
@@ -3406,8 +3436,8 @@
       <c r="J38" t="s">
         <v>452</v>
       </c>
-      <c r="K38" t="s">
-        <v>516</v>
+      <c r="K38" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3421,7 +3451,7 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E39" t="s">
         <v>211</v>
@@ -3441,8 +3471,8 @@
       <c r="J39" t="s">
         <v>453</v>
       </c>
-      <c r="K39" t="s">
-        <v>522</v>
+      <c r="K39" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3456,7 +3486,7 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E40" t="s">
         <v>210</v>
@@ -3476,8 +3506,8 @@
       <c r="J40" t="s">
         <v>454</v>
       </c>
-      <c r="K40" t="s">
-        <v>520</v>
+      <c r="K40" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3491,7 +3521,7 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E41" t="s">
         <v>211</v>
@@ -3511,8 +3541,8 @@
       <c r="J41" t="s">
         <v>455</v>
       </c>
-      <c r="K41" t="s">
-        <v>519</v>
+      <c r="K41" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3526,7 +3556,7 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E42" t="s">
         <v>212</v>
@@ -3546,7 +3576,7 @@
       <c r="J42" t="s">
         <v>456</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -3561,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
@@ -3581,8 +3611,8 @@
       <c r="J43" t="s">
         <v>457</v>
       </c>
-      <c r="K43" t="s">
-        <v>523</v>
+      <c r="K43" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3596,7 +3626,7 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E44" t="s">
         <v>212</v>
@@ -3616,8 +3646,8 @@
       <c r="J44" t="s">
         <v>458</v>
       </c>
-      <c r="K44" t="s">
-        <v>516</v>
+      <c r="K44" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3631,7 +3661,7 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E45" t="s">
         <v>213</v>
@@ -3651,8 +3681,8 @@
       <c r="J45" t="s">
         <v>459</v>
       </c>
-      <c r="K45" t="s">
-        <v>522</v>
+      <c r="K45" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3696,7 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E46" t="s">
         <v>213</v>
@@ -3686,8 +3716,8 @@
       <c r="J46" t="s">
         <v>460</v>
       </c>
-      <c r="K46" t="s">
-        <v>519</v>
+      <c r="K46" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3701,7 +3731,7 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E47" t="s">
         <v>212</v>
@@ -3721,7 +3751,7 @@
       <c r="J47" t="s">
         <v>461</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="2" t="s">
         <v>521</v>
       </c>
     </row>
@@ -3736,7 +3766,7 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E48" t="s">
         <v>210</v>
@@ -3756,7 +3786,7 @@
       <c r="J48" t="s">
         <v>462</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -3771,7 +3801,7 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E49" t="s">
         <v>211</v>
@@ -3791,11 +3821,11 @@
       <c r="J49" t="s">
         <v>463</v>
       </c>
-      <c r="K49" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3806,7 +3836,7 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E50" t="s">
         <v>211</v>
@@ -3826,11 +3856,11 @@
       <c r="J50" t="s">
         <v>464</v>
       </c>
-      <c r="K50" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3841,7 +3871,7 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E51" t="s">
         <v>213</v>
@@ -3861,8 +3891,8 @@
       <c r="J51" t="s">
         <v>465</v>
       </c>
-      <c r="K51" t="s">
-        <v>518</v>
+      <c r="K51" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3876,7 +3906,7 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E52" t="s">
         <v>211</v>
@@ -3896,8 +3926,8 @@
       <c r="J52" t="s">
         <v>466</v>
       </c>
-      <c r="K52" t="s">
-        <v>517</v>
+      <c r="K52" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3911,7 +3941,7 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E53" t="s">
         <v>210</v>
@@ -3931,8 +3961,8 @@
       <c r="J53" t="s">
         <v>467</v>
       </c>
-      <c r="K53" t="s">
-        <v>523</v>
+      <c r="K53" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3946,7 +3976,7 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E54" t="s">
         <v>212</v>
@@ -3966,8 +3996,8 @@
       <c r="J54" t="s">
         <v>468</v>
       </c>
-      <c r="K54" t="s">
-        <v>516</v>
+      <c r="K54" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3981,7 +4011,7 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E55" t="s">
         <v>211</v>
@@ -4001,8 +4031,8 @@
       <c r="J55" t="s">
         <v>469</v>
       </c>
-      <c r="K55" t="s">
-        <v>523</v>
+      <c r="K55" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4016,7 +4046,7 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E56" t="s">
         <v>213</v>
@@ -4036,8 +4066,8 @@
       <c r="J56" t="s">
         <v>470</v>
       </c>
-      <c r="K56" t="s">
-        <v>522</v>
+      <c r="K56" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4051,7 +4081,7 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E57" t="s">
         <v>210</v>
@@ -4071,8 +4101,8 @@
       <c r="J57" t="s">
         <v>471</v>
       </c>
-      <c r="K57" t="s">
-        <v>517</v>
+      <c r="K57" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4086,7 +4116,7 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E58" t="s">
         <v>211</v>
@@ -4106,8 +4136,8 @@
       <c r="J58" t="s">
         <v>472</v>
       </c>
-      <c r="K58" t="s">
-        <v>520</v>
+      <c r="K58" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4121,7 +4151,7 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E59" t="s">
         <v>212</v>
@@ -4141,7 +4171,7 @@
       <c r="J59" t="s">
         <v>473</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4156,7 +4186,7 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E60" t="s">
         <v>212</v>
@@ -4176,7 +4206,7 @@
       <c r="J60" t="s">
         <v>474</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -4191,7 +4221,7 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E61" t="s">
         <v>211</v>
@@ -4211,8 +4241,8 @@
       <c r="J61" t="s">
         <v>475</v>
       </c>
-      <c r="K61" t="s">
-        <v>519</v>
+      <c r="K61" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4226,7 +4256,7 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E62" t="s">
         <v>212</v>
@@ -4246,8 +4276,8 @@
       <c r="J62" t="s">
         <v>476</v>
       </c>
-      <c r="K62" t="s">
-        <v>516</v>
+      <c r="K62" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4261,7 +4291,7 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E63" t="s">
         <v>211</v>
@@ -4281,8 +4311,8 @@
       <c r="J63" t="s">
         <v>477</v>
       </c>
-      <c r="K63" t="s">
-        <v>516</v>
+      <c r="K63" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,7 +4326,7 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E64" t="s">
         <v>213</v>
@@ -4316,7 +4346,7 @@
       <c r="J64" t="s">
         <v>478</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4331,7 +4361,7 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E65" t="s">
         <v>213</v>
@@ -4351,8 +4381,8 @@
       <c r="J65" t="s">
         <v>479</v>
       </c>
-      <c r="K65" t="s">
-        <v>516</v>
+      <c r="K65" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4366,7 +4396,7 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E66" t="s">
         <v>212</v>
@@ -4386,8 +4416,8 @@
       <c r="J66" t="s">
         <v>480</v>
       </c>
-      <c r="K66" t="s">
-        <v>516</v>
+      <c r="K66" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4401,7 +4431,7 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E67" t="s">
         <v>212</v>
@@ -4421,8 +4451,8 @@
       <c r="J67" t="s">
         <v>481</v>
       </c>
-      <c r="K67" t="s">
-        <v>519</v>
+      <c r="K67" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4436,7 +4466,7 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E68" t="s">
         <v>213</v>
@@ -4456,8 +4486,8 @@
       <c r="J68" t="s">
         <v>482</v>
       </c>
-      <c r="K68" t="s">
-        <v>517</v>
+      <c r="K68" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4471,7 +4501,7 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E69" t="s">
         <v>210</v>
@@ -4491,11 +4521,11 @@
       <c r="J69" t="s">
         <v>483</v>
       </c>
-      <c r="K69" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4506,7 +4536,7 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E70" t="s">
         <v>210</v>
@@ -4526,11 +4556,11 @@
       <c r="J70" t="s">
         <v>484</v>
       </c>
-      <c r="K70" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4541,7 +4571,7 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
@@ -4561,8 +4591,8 @@
       <c r="J71" t="s">
         <v>485</v>
       </c>
-      <c r="K71" t="s">
-        <v>517</v>
+      <c r="K71" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4576,7 +4606,7 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
@@ -4596,8 +4626,8 @@
       <c r="J72" t="s">
         <v>486</v>
       </c>
-      <c r="K72" t="s">
-        <v>518</v>
+      <c r="K72" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4611,7 +4641,7 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E73" t="s">
         <v>211</v>
@@ -4631,7 +4661,7 @@
       <c r="J73" t="s">
         <v>487</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="2" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4646,7 +4676,7 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E74" t="s">
         <v>210</v>
@@ -4666,8 +4696,8 @@
       <c r="J74" t="s">
         <v>488</v>
       </c>
-      <c r="K74" t="s">
-        <v>522</v>
+      <c r="K74" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4681,7 +4711,7 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E75" t="s">
         <v>212</v>
@@ -4701,8 +4731,8 @@
       <c r="J75" t="s">
         <v>489</v>
       </c>
-      <c r="K75" t="s">
-        <v>523</v>
+      <c r="K75" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4716,7 +4746,7 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E76" t="s">
         <v>211</v>
@@ -4736,8 +4766,8 @@
       <c r="J76" t="s">
         <v>490</v>
       </c>
-      <c r="K76" t="s">
-        <v>521</v>
+      <c r="K76" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4751,7 +4781,7 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E77" t="s">
         <v>213</v>
@@ -4771,8 +4801,8 @@
       <c r="J77" t="s">
         <v>491</v>
       </c>
-      <c r="K77" t="s">
-        <v>523</v>
+      <c r="K77" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4786,7 +4816,7 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E78" t="s">
         <v>210</v>
@@ -4806,8 +4836,8 @@
       <c r="J78" t="s">
         <v>492</v>
       </c>
-      <c r="K78" t="s">
-        <v>518</v>
+      <c r="K78" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4821,7 +4851,7 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E79" t="s">
         <v>211</v>
@@ -4841,8 +4871,8 @@
       <c r="J79" t="s">
         <v>493</v>
       </c>
-      <c r="K79" t="s">
-        <v>520</v>
+      <c r="K79" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4856,7 +4886,7 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E80" t="s">
         <v>213</v>
@@ -4876,8 +4906,8 @@
       <c r="J80" t="s">
         <v>494</v>
       </c>
-      <c r="K80" t="s">
-        <v>517</v>
+      <c r="K80" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4891,7 +4921,7 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E81" t="s">
         <v>210</v>
@@ -4911,8 +4941,8 @@
       <c r="J81" t="s">
         <v>495</v>
       </c>
-      <c r="K81" t="s">
-        <v>521</v>
+      <c r="K81" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4926,7 +4956,7 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E82" t="s">
         <v>211</v>
@@ -4946,7 +4976,7 @@
       <c r="J82" t="s">
         <v>496</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -4961,7 +4991,7 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E83" t="s">
         <v>210</v>
@@ -4981,8 +5011,8 @@
       <c r="J83" t="s">
         <v>497</v>
       </c>
-      <c r="K83" t="s">
-        <v>521</v>
+      <c r="K83" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4996,7 +5026,7 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E84" t="s">
         <v>211</v>
@@ -5016,8 +5046,8 @@
       <c r="J84" t="s">
         <v>498</v>
       </c>
-      <c r="K84" t="s">
-        <v>521</v>
+      <c r="K84" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5031,7 +5061,7 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E85" t="s">
         <v>212</v>
@@ -5051,8 +5081,8 @@
       <c r="J85" t="s">
         <v>499</v>
       </c>
-      <c r="K85" t="s">
-        <v>520</v>
+      <c r="K85" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5066,7 +5096,7 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E86" t="s">
         <v>213</v>
@@ -5086,8 +5116,8 @@
       <c r="J86" t="s">
         <v>500</v>
       </c>
-      <c r="K86" t="s">
-        <v>522</v>
+      <c r="K86" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5101,7 +5131,7 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E87" t="s">
         <v>213</v>
@@ -5121,8 +5151,8 @@
       <c r="J87" t="s">
         <v>501</v>
       </c>
-      <c r="K87" t="s">
-        <v>522</v>
+      <c r="K87" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5136,7 +5166,7 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E88" t="s">
         <v>211</v>
@@ -5156,7 +5186,7 @@
       <c r="J88" t="s">
         <v>502</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -5171,7 +5201,7 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E89" t="s">
         <v>212</v>
@@ -5191,11 +5221,11 @@
       <c r="J89" t="s">
         <v>503</v>
       </c>
-      <c r="K89" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5206,7 +5236,7 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E90" t="s">
         <v>210</v>
@@ -5226,11 +5256,11 @@
       <c r="J90" t="s">
         <v>504</v>
       </c>
-      <c r="K90" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5241,7 +5271,7 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E91" t="s">
         <v>213</v>
@@ -5261,7 +5291,7 @@
       <c r="J91" t="s">
         <v>505</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5276,7 +5306,7 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E92" t="s">
         <v>213</v>
@@ -5296,8 +5326,8 @@
       <c r="J92" t="s">
         <v>506</v>
       </c>
-      <c r="K92" t="s">
-        <v>520</v>
+      <c r="K92" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5311,7 +5341,7 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E93" t="s">
         <v>212</v>
@@ -5331,8 +5361,8 @@
       <c r="J93" t="s">
         <v>507</v>
       </c>
-      <c r="K93" t="s">
-        <v>518</v>
+      <c r="K93" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5346,7 +5376,7 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E94" t="s">
         <v>213</v>
@@ -5366,8 +5396,8 @@
       <c r="J94" t="s">
         <v>508</v>
       </c>
-      <c r="K94" t="s">
-        <v>517</v>
+      <c r="K94" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5381,7 +5411,7 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E95" t="s">
         <v>213</v>
@@ -5401,8 +5431,8 @@
       <c r="J95" t="s">
         <v>509</v>
       </c>
-      <c r="K95" t="s">
-        <v>523</v>
+      <c r="K95" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5416,7 +5446,7 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E96" t="s">
         <v>211</v>
@@ -5436,8 +5466,8 @@
       <c r="J96" t="s">
         <v>510</v>
       </c>
-      <c r="K96" t="s">
-        <v>518</v>
+      <c r="K96" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5451,7 +5481,7 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E97" t="s">
         <v>210</v>
@@ -5471,8 +5501,8 @@
       <c r="J97" t="s">
         <v>511</v>
       </c>
-      <c r="K97" t="s">
-        <v>523</v>
+      <c r="K97" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5486,7 +5516,7 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E98" t="s">
         <v>212</v>
@@ -5506,8 +5536,8 @@
       <c r="J98" t="s">
         <v>512</v>
       </c>
-      <c r="K98" t="s">
-        <v>521</v>
+      <c r="K98" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5521,7 +5551,7 @@
         <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E99" t="s">
         <v>210</v>
@@ -5541,8 +5571,8 @@
       <c r="J99" t="s">
         <v>513</v>
       </c>
-      <c r="K99" t="s">
-        <v>518</v>
+      <c r="K99" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5556,7 +5586,7 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E100" t="s">
         <v>211</v>
@@ -5576,8 +5606,8 @@
       <c r="J100" t="s">
         <v>514</v>
       </c>
-      <c r="K100" t="s">
-        <v>522</v>
+      <c r="K100" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5591,7 +5621,7 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E101" t="s">
         <v>213</v>
@@ -5611,8 +5641,8 @@
       <c r="J101" t="s">
         <v>515</v>
       </c>
-      <c r="K101" t="s">
-        <v>516</v>
+      <c r="K101" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kkl\Final Excel Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8C5BF-F91C-4693-9645-40ECB44E47FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FB692-56B6-4609-BB0B-E6C6D950C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="472">
   <si>
     <t>emp_id</t>
   </si>
@@ -664,9 +664,6 @@
     <t>Temporary</t>
   </si>
   <si>
-    <t>danielcarpenter@example.org</t>
-  </si>
-  <si>
     <t>susan19@example.net</t>
   </si>
   <si>
@@ -724,12 +721,6 @@
     <t>michael09@example.net</t>
   </si>
   <si>
-    <t>tricia36@example.com</t>
-  </si>
-  <si>
-    <t>rodriguezanthony@example.net</t>
-  </si>
-  <si>
     <t>karina33@example.com</t>
   </si>
   <si>
@@ -962,306 +953,6 @@
   </si>
   <si>
     <t>stanleysarah@example.org</t>
-  </si>
-  <si>
-    <t>749.610.9395x770</t>
-  </si>
-  <si>
-    <t>635.802.3571x296</t>
-  </si>
-  <si>
-    <t>(614)739-6487x6265</t>
-  </si>
-  <si>
-    <t>374.445.3001x111</t>
-  </si>
-  <si>
-    <t>+1-796-240-7395x9129</t>
-  </si>
-  <si>
-    <t>8459004681</t>
-  </si>
-  <si>
-    <t>(364)907-9553x926</t>
-  </si>
-  <si>
-    <t>309-464-4645</t>
-  </si>
-  <si>
-    <t>783.217.7054x67716</t>
-  </si>
-  <si>
-    <t>890-900-4440x196</t>
-  </si>
-  <si>
-    <t>4109740175</t>
-  </si>
-  <si>
-    <t>876-885-8352</t>
-  </si>
-  <si>
-    <t>634-477-3836x0466</t>
-  </si>
-  <si>
-    <t>891-748-5848</t>
-  </si>
-  <si>
-    <t>001-885-670-0645x2177</t>
-  </si>
-  <si>
-    <t>3038255901</t>
-  </si>
-  <si>
-    <t>(558)950-7508</t>
-  </si>
-  <si>
-    <t>001-480-344-7669x6056</t>
-  </si>
-  <si>
-    <t>001-944-356-9919x86645</t>
-  </si>
-  <si>
-    <t>424.822.5947x89048</t>
-  </si>
-  <si>
-    <t>9146213910</t>
-  </si>
-  <si>
-    <t>435-389-6622</t>
-  </si>
-  <si>
-    <t>+1-658-892-6015x5771</t>
-  </si>
-  <si>
-    <t>001-359-410-3347x8711</t>
-  </si>
-  <si>
-    <t>(417)210-2631</t>
-  </si>
-  <si>
-    <t>(446)507-3388x761</t>
-  </si>
-  <si>
-    <t>917.554.1316x3435</t>
-  </si>
-  <si>
-    <t>(257)527-7805</t>
-  </si>
-  <si>
-    <t>+1-951-362-7459x1292</t>
-  </si>
-  <si>
-    <t>001-711-282-6061x4702</t>
-  </si>
-  <si>
-    <t>+1-250-589-0693x81872</t>
-  </si>
-  <si>
-    <t>3204910792</t>
-  </si>
-  <si>
-    <t>4662535659</t>
-  </si>
-  <si>
-    <t>963-650-2321x8629</t>
-  </si>
-  <si>
-    <t>567.372.1699x0666</t>
-  </si>
-  <si>
-    <t>5889159110</t>
-  </si>
-  <si>
-    <t>460-925-8837</t>
-  </si>
-  <si>
-    <t>6177841461</t>
-  </si>
-  <si>
-    <t>+1-979-809-2280x792</t>
-  </si>
-  <si>
-    <t>(232)834-0247x9443</t>
-  </si>
-  <si>
-    <t>413-568-0993x9427</t>
-  </si>
-  <si>
-    <t>2445988967</t>
-  </si>
-  <si>
-    <t>715-351-9844x033</t>
-  </si>
-  <si>
-    <t>585-258-7036x1244</t>
-  </si>
-  <si>
-    <t>994.209.9223x52821</t>
-  </si>
-  <si>
-    <t>(782)717-2173</t>
-  </si>
-  <si>
-    <t>769.580.8651x43987</t>
-  </si>
-  <si>
-    <t>9673027793</t>
-  </si>
-  <si>
-    <t>(610)663-5167x23146</t>
-  </si>
-  <si>
-    <t>449.478.1071x1537</t>
-  </si>
-  <si>
-    <t>694.388.7348</t>
-  </si>
-  <si>
-    <t>216.314.1998x01894</t>
-  </si>
-  <si>
-    <t>977.837.5225x4120</t>
-  </si>
-  <si>
-    <t>(961)728-3749</t>
-  </si>
-  <si>
-    <t>+1-816-835-3802x0440</t>
-  </si>
-  <si>
-    <t>928.918.6989x6856</t>
-  </si>
-  <si>
-    <t>332.260.7523x168</t>
-  </si>
-  <si>
-    <t>396-205-8149x6570</t>
-  </si>
-  <si>
-    <t>895.582.9947x76726</t>
-  </si>
-  <si>
-    <t>927.886.6016</t>
-  </si>
-  <si>
-    <t>837.787.8258x3974</t>
-  </si>
-  <si>
-    <t>+1-694-332-0772x1361</t>
-  </si>
-  <si>
-    <t>(646)622-0135x74961</t>
-  </si>
-  <si>
-    <t>001-591-479-3053x6888</t>
-  </si>
-  <si>
-    <t>001-403-566-7217x94253</t>
-  </si>
-  <si>
-    <t>317.567.4091</t>
-  </si>
-  <si>
-    <t>+1-792-813-3250x6750</t>
-  </si>
-  <si>
-    <t>(876)959-8646</t>
-  </si>
-  <si>
-    <t>(231)591-4662x14554</t>
-  </si>
-  <si>
-    <t>789.405.3066x745</t>
-  </si>
-  <si>
-    <t>418-483-3026x08657</t>
-  </si>
-  <si>
-    <t>987-529-6386</t>
-  </si>
-  <si>
-    <t>+1-528-929-9962x326</t>
-  </si>
-  <si>
-    <t>587.817.2429x31245</t>
-  </si>
-  <si>
-    <t>656.975.5203</t>
-  </si>
-  <si>
-    <t>+1-575-215-0904x601</t>
-  </si>
-  <si>
-    <t>001-975-986-6702x97828</t>
-  </si>
-  <si>
-    <t>001-827-882-3955x2931</t>
-  </si>
-  <si>
-    <t>711-328-9668x03731</t>
-  </si>
-  <si>
-    <t>+1-244-767-3918x41080</t>
-  </si>
-  <si>
-    <t>406.213.6606</t>
-  </si>
-  <si>
-    <t>+1-843-904-3444x89863</t>
-  </si>
-  <si>
-    <t>311.376.5907x506</t>
-  </si>
-  <si>
-    <t>+1-795-900-9025x44335</t>
-  </si>
-  <si>
-    <t>531.528.7744x8142</t>
-  </si>
-  <si>
-    <t>(566)851-8162</t>
-  </si>
-  <si>
-    <t>401.573.4997x124</t>
-  </si>
-  <si>
-    <t>677-678-6125</t>
-  </si>
-  <si>
-    <t>001-228-713-0437x302</t>
-  </si>
-  <si>
-    <t>598-944-5784x867</t>
-  </si>
-  <si>
-    <t>226-940-3045x5381</t>
-  </si>
-  <si>
-    <t>939-839-2763x299</t>
-  </si>
-  <si>
-    <t>001-300-285-6778x7934</t>
-  </si>
-  <si>
-    <t>+1-621-725-7507x42282</t>
-  </si>
-  <si>
-    <t>7018274009</t>
-  </si>
-  <si>
-    <t>429-430-1046</t>
-  </si>
-  <si>
-    <t>933.389.8513x240</t>
-  </si>
-  <si>
-    <t>8504384814</t>
-  </si>
-  <si>
-    <t>523.297.7065x91991</t>
-  </si>
-  <si>
-    <t>(673)815-7865</t>
   </si>
   <si>
     <t>Female</t>
@@ -1686,13 +1377,172 @@
   </si>
   <si>
     <t>NS</t>
+  </si>
+  <si>
+    <t>sabarinathan.project@gmail.com</t>
+  </si>
+  <si>
+    <t>73055 91363</t>
+  </si>
+  <si>
+    <t>73055 91364</t>
+  </si>
+  <si>
+    <t>73055 91365</t>
+  </si>
+  <si>
+    <t>73055 91366</t>
+  </si>
+  <si>
+    <t>73055 91367</t>
+  </si>
+  <si>
+    <t>73055 91368</t>
+  </si>
+  <si>
+    <t>93844 60843</t>
+  </si>
+  <si>
+    <t>93844 60844</t>
+  </si>
+  <si>
+    <t>93844 60845</t>
+  </si>
+  <si>
+    <t>93844 60846</t>
+  </si>
+  <si>
+    <t>93844 60847</t>
+  </si>
+  <si>
+    <t>93844 60848</t>
+  </si>
+  <si>
+    <t>93844 60849</t>
+  </si>
+  <si>
+    <t>93844 60850</t>
+  </si>
+  <si>
+    <t>93844 60851</t>
+  </si>
+  <si>
+    <t>93844 60852</t>
+  </si>
+  <si>
+    <t>93844 60853</t>
+  </si>
+  <si>
+    <t>93844 60854</t>
+  </si>
+  <si>
+    <t>93844 60855</t>
+  </si>
+  <si>
+    <t>93844 60856</t>
+  </si>
+  <si>
+    <t>93844 60857</t>
+  </si>
+  <si>
+    <t>93844 60858</t>
+  </si>
+  <si>
+    <t>93844 60859</t>
+  </si>
+  <si>
+    <t>93844 60860</t>
+  </si>
+  <si>
+    <t>93844 60861</t>
+  </si>
+  <si>
+    <t>93844 60862</t>
+  </si>
+  <si>
+    <t>93844 60863</t>
+  </si>
+  <si>
+    <t>93844 60864</t>
+  </si>
+  <si>
+    <t>93844 60865</t>
+  </si>
+  <si>
+    <t>93844 60866</t>
+  </si>
+  <si>
+    <t>93844 60867</t>
+  </si>
+  <si>
+    <t>93844 60868</t>
+  </si>
+  <si>
+    <t>93844 60869</t>
+  </si>
+  <si>
+    <t>93844 60870</t>
+  </si>
+  <si>
+    <t>93844 60871</t>
+  </si>
+  <si>
+    <t>93844 60872</t>
+  </si>
+  <si>
+    <t>93844 60873</t>
+  </si>
+  <si>
+    <t>93844 60874</t>
+  </si>
+  <si>
+    <t>93844 60875</t>
+  </si>
+  <si>
+    <t>93844 60876</t>
+  </si>
+  <si>
+    <t>93844 60877</t>
+  </si>
+  <si>
+    <t>93844 60878</t>
+  </si>
+  <si>
+    <t>93844 60879</t>
+  </si>
+  <si>
+    <t>93844 60880</t>
+  </si>
+  <si>
+    <t>93844 60881</t>
+  </si>
+  <si>
+    <t>93844 60882</t>
+  </si>
+  <si>
+    <t>93844 60883</t>
+  </si>
+  <si>
+    <t>93844 60884</t>
+  </si>
+  <si>
+    <t>93844 60885</t>
+  </si>
+  <si>
+    <t>a.mahaveer5@gmail.com</t>
+  </si>
+  <si>
+    <t>73055 91354</t>
+  </si>
+  <si>
+    <t>vinothg0618@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +1563,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1777,10 +1641,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1791,8 +1656,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2097,17 +1967,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K101"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="21.109375" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2156,28 +2028,28 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
         <v>210</v>
       </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>314</v>
+      <c r="F2" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2">
+        <v>7812885388</v>
       </c>
       <c r="H2">
         <v>648559061756</v>
       </c>
       <c r="I2" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2191,28 +2063,28 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E3" t="s">
         <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" t="s">
-        <v>315</v>
+        <v>214</v>
+      </c>
+      <c r="G3">
+        <v>7812885388</v>
       </c>
       <c r="H3">
         <v>137952611474</v>
       </c>
       <c r="I3" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>314</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2226,28 +2098,28 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
         <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" t="s">
-        <v>316</v>
+        <v>215</v>
+      </c>
+      <c r="G4">
+        <v>7812885388</v>
       </c>
       <c r="H4">
         <v>706652989133</v>
       </c>
       <c r="I4" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J4" t="s">
-        <v>418</v>
+        <v>315</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2261,28 +2133,28 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E5" t="s">
         <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" t="s">
-        <v>317</v>
+        <v>216</v>
+      </c>
+      <c r="G5">
+        <v>7812885388</v>
       </c>
       <c r="H5">
         <v>403582754984</v>
       </c>
       <c r="I5" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2296,28 +2168,28 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
         <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" t="s">
-        <v>318</v>
+        <v>217</v>
+      </c>
+      <c r="G6">
+        <v>7812885388</v>
       </c>
       <c r="H6">
         <v>315832342388</v>
       </c>
       <c r="I6" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2331,28 +2203,28 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
         <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" t="s">
-        <v>319</v>
+        <v>218</v>
+      </c>
+      <c r="G7">
+        <v>7812885388</v>
       </c>
       <c r="H7">
         <v>743091774687</v>
       </c>
       <c r="I7" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J7" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2366,28 +2238,28 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E8" t="s">
         <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>320</v>
+        <v>219</v>
+      </c>
+      <c r="G8">
+        <v>7812885388</v>
       </c>
       <c r="H8">
         <v>431974422209</v>
       </c>
       <c r="I8" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J8" t="s">
-        <v>422</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2401,28 +2273,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E9" t="s">
         <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>321</v>
+        <v>220</v>
+      </c>
+      <c r="G9">
+        <v>7812885388</v>
       </c>
       <c r="H9">
         <v>979780241502</v>
       </c>
       <c r="I9" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J9" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2436,28 +2308,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
         <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" t="s">
-        <v>322</v>
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <v>7812885388</v>
       </c>
       <c r="H10">
         <v>229497359664</v>
       </c>
       <c r="I10" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2471,28 +2343,28 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
         <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" t="s">
-        <v>323</v>
+        <v>222</v>
+      </c>
+      <c r="G11">
+        <v>7812885388</v>
       </c>
       <c r="H11">
         <v>597299568796</v>
       </c>
       <c r="I11" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2506,28 +2378,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
         <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" t="s">
-        <v>324</v>
+        <v>223</v>
+      </c>
+      <c r="G12">
+        <v>7812885388</v>
       </c>
       <c r="H12">
         <v>212379069599</v>
       </c>
       <c r="I12" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J12" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2541,28 +2413,28 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
         <v>211</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" t="s">
-        <v>325</v>
+        <v>224</v>
+      </c>
+      <c r="G13">
+        <v>7812885388</v>
       </c>
       <c r="H13">
         <v>206418354101</v>
       </c>
       <c r="I13" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J13" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2576,28 +2448,28 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
         <v>213</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" t="s">
-        <v>326</v>
+        <v>225</v>
+      </c>
+      <c r="G14">
+        <v>7812885388</v>
       </c>
       <c r="H14">
         <v>584192351886</v>
       </c>
       <c r="I14" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2611,28 +2483,28 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
         <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" t="s">
-        <v>327</v>
+        <v>226</v>
+      </c>
+      <c r="G15">
+        <v>7812885388</v>
       </c>
       <c r="H15">
         <v>196039167242</v>
       </c>
       <c r="I15" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2646,28 +2518,28 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
         <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" t="s">
-        <v>328</v>
+        <v>227</v>
+      </c>
+      <c r="G16">
+        <v>7812885388</v>
       </c>
       <c r="H16">
         <v>759042244189</v>
       </c>
       <c r="I16" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J16" t="s">
-        <v>430</v>
+        <v>327</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2681,28 +2553,28 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
         <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" t="s">
-        <v>329</v>
+        <v>228</v>
+      </c>
+      <c r="G17">
+        <v>7812885388</v>
       </c>
       <c r="H17">
         <v>467607418144</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>328</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2716,28 +2588,28 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E18" t="s">
         <v>213</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G18" t="s">
-        <v>330</v>
+        <v>229</v>
+      </c>
+      <c r="G18">
+        <v>7812885388</v>
       </c>
       <c r="H18">
         <v>364779979890</v>
       </c>
       <c r="I18" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J18" t="s">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2751,28 +2623,28 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E19" t="s">
         <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" t="s">
-        <v>331</v>
+        <v>230</v>
+      </c>
+      <c r="G19">
+        <v>7812885388</v>
       </c>
       <c r="H19">
         <v>810667824063</v>
       </c>
       <c r="I19" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J19" t="s">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2786,28 +2658,28 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
         <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" t="s">
-        <v>332</v>
+        <v>231</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="H20">
         <v>121216267981</v>
       </c>
       <c r="I20" t="s">
+        <v>312</v>
+      </c>
+      <c r="J20" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J20" t="s">
-        <v>434</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2821,28 +2693,28 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
         <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
-      </c>
-      <c r="G21" t="s">
-        <v>333</v>
+        <v>232</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="H21">
         <v>195494225870</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J21" t="s">
-        <v>435</v>
+        <v>332</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2856,28 +2728,28 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E22" t="s">
         <v>211</v>
       </c>
-      <c r="F22" t="s">
-        <v>234</v>
-      </c>
-      <c r="G22" t="s">
-        <v>334</v>
+      <c r="F22" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>470</v>
       </c>
       <c r="H22">
         <v>537438151053</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J22" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2891,28 +2763,28 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E23" t="s">
         <v>213</v>
       </c>
-      <c r="F23" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" t="s">
-        <v>335</v>
+      <c r="F23" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="H23">
         <v>897446102202</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2926,28 +2798,28 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
         <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" t="s">
-        <v>336</v>
+        <v>233</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="H24">
         <v>937187699111</v>
       </c>
       <c r="I24" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J24" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2961,28 +2833,28 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E25" t="s">
         <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" t="s">
-        <v>337</v>
+        <v>234</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="H25">
         <v>779818943791</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J25" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2996,28 +2868,28 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" t="s">
-        <v>338</v>
+        <v>235</v>
+      </c>
+      <c r="G26">
+        <v>7812885388</v>
       </c>
       <c r="H26">
         <v>952701409513</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J26" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3031,28 +2903,28 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E27" t="s">
         <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
-      </c>
-      <c r="G27" t="s">
-        <v>339</v>
+        <v>236</v>
+      </c>
+      <c r="G27">
+        <v>7812885388</v>
       </c>
       <c r="H27">
         <v>941799797738</v>
       </c>
       <c r="I27" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J27" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3066,28 +2938,28 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
         <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" t="s">
-        <v>340</v>
+        <v>237</v>
+      </c>
+      <c r="G28">
+        <v>7812885388</v>
       </c>
       <c r="H28">
         <v>524429255605</v>
       </c>
       <c r="I28" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J28" t="s">
-        <v>442</v>
+        <v>339</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3101,28 +2973,28 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" t="s">
-        <v>341</v>
+        <v>238</v>
+      </c>
+      <c r="G29">
+        <v>7812885388</v>
       </c>
       <c r="H29">
         <v>900167539314</v>
       </c>
       <c r="I29" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J29" t="s">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3136,28 +3008,28 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E30" t="s">
         <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" t="s">
-        <v>342</v>
+        <v>239</v>
+      </c>
+      <c r="G30">
+        <v>7812885388</v>
       </c>
       <c r="H30">
         <v>957134240394</v>
       </c>
       <c r="I30" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3171,28 +3043,28 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E31" t="s">
         <v>213</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" t="s">
-        <v>343</v>
+        <v>240</v>
+      </c>
+      <c r="G31">
+        <v>7812885388</v>
       </c>
       <c r="H31">
         <v>612058883882</v>
       </c>
       <c r="I31" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3206,28 +3078,28 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E32" t="s">
         <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
-      </c>
-      <c r="G32" t="s">
-        <v>344</v>
+        <v>241</v>
+      </c>
+      <c r="G32">
+        <v>7812885388</v>
       </c>
       <c r="H32">
         <v>463099846798</v>
       </c>
       <c r="I32" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>446</v>
+        <v>343</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3241,28 +3113,28 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E33" t="s">
         <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" t="s">
-        <v>345</v>
+        <v>242</v>
+      </c>
+      <c r="G33">
+        <v>7812885388</v>
       </c>
       <c r="H33">
         <v>741983234529</v>
       </c>
       <c r="I33" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>344</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3276,28 +3148,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
         <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
-      </c>
-      <c r="G34" t="s">
-        <v>346</v>
+        <v>243</v>
+      </c>
+      <c r="G34">
+        <v>7812885388</v>
       </c>
       <c r="H34">
         <v>223588277519</v>
       </c>
       <c r="I34" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3311,28 +3183,28 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
         <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" t="s">
-        <v>347</v>
+        <v>244</v>
+      </c>
+      <c r="G35">
+        <v>7812885388</v>
       </c>
       <c r="H35">
         <v>278144285507</v>
       </c>
       <c r="I35" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3346,28 +3218,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E36" t="s">
         <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" t="s">
-        <v>348</v>
+        <v>245</v>
+      </c>
+      <c r="G36">
+        <v>7812885388</v>
       </c>
       <c r="H36">
         <v>460588189626</v>
       </c>
       <c r="I36" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>450</v>
+        <v>347</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3381,28 +3253,28 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
         <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" t="s">
-        <v>349</v>
+        <v>246</v>
+      </c>
+      <c r="G37">
+        <v>7812885388</v>
       </c>
       <c r="H37">
         <v>632069846593</v>
       </c>
       <c r="I37" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>451</v>
+        <v>348</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3416,28 +3288,28 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E38" t="s">
         <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" t="s">
-        <v>350</v>
+        <v>247</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="H38">
         <v>539277202439</v>
       </c>
       <c r="I38" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3451,28 +3323,28 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E39" t="s">
         <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" t="s">
-        <v>351</v>
+        <v>248</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="H39">
         <v>458703642524</v>
       </c>
       <c r="I39" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3486,28 +3358,28 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E40" t="s">
         <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" t="s">
-        <v>352</v>
+        <v>249</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>428</v>
       </c>
       <c r="H40">
         <v>143951791695</v>
       </c>
       <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>351</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J40" t="s">
-        <v>454</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3521,28 +3393,28 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E41" t="s">
         <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" t="s">
-        <v>353</v>
+        <v>250</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="H41">
         <v>702572597624</v>
       </c>
       <c r="I41" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3556,28 +3428,28 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E42" t="s">
         <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
-      </c>
-      <c r="G42" t="s">
-        <v>354</v>
+        <v>251</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="H42">
         <v>781452946044</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J42" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3591,28 +3463,28 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E43" t="s">
         <v>213</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" t="s">
-        <v>355</v>
+        <v>252</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H43">
         <v>102283712742</v>
       </c>
       <c r="I43" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J43" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3626,28 +3498,28 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E44" t="s">
         <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" t="s">
-        <v>356</v>
+        <v>253</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H44">
         <v>727752747523</v>
       </c>
       <c r="I44" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3661,28 +3533,28 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E45" t="s">
         <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G45" t="s">
-        <v>357</v>
+        <v>254</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="H45">
         <v>295898199420</v>
       </c>
       <c r="I45" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J45" t="s">
-        <v>459</v>
+        <v>356</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3696,28 +3568,28 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E46" t="s">
         <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
-      </c>
-      <c r="G46" t="s">
-        <v>358</v>
+        <v>255</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="H46">
         <v>515687510305</v>
       </c>
       <c r="I46" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J46" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3731,28 +3603,28 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E47" t="s">
         <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
-      </c>
-      <c r="G47" t="s">
-        <v>359</v>
+        <v>256</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="H47">
         <v>621685561996</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J47" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3766,28 +3638,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E48" t="s">
         <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
-      </c>
-      <c r="G48" t="s">
-        <v>360</v>
+        <v>257</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="H48">
         <v>788093413338</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J48" t="s">
-        <v>462</v>
+        <v>359</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3801,28 +3673,28 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E49" t="s">
         <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
-      </c>
-      <c r="G49" t="s">
-        <v>361</v>
+        <v>258</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>437</v>
       </c>
       <c r="H49">
         <v>474760840752</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J49" t="s">
-        <v>463</v>
+        <v>360</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3836,28 +3708,28 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>519</v>
+        <v>416</v>
       </c>
       <c r="E50" t="s">
         <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
-      </c>
-      <c r="G50" t="s">
-        <v>362</v>
+        <v>259</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="H50">
         <v>963698244498</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J50" t="s">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3871,28 +3743,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E51" t="s">
         <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
-      </c>
-      <c r="G51" t="s">
-        <v>363</v>
+        <v>260</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="H51">
         <v>544948800338</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>362</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3906,28 +3778,28 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E52" t="s">
         <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
-      </c>
-      <c r="G52" t="s">
-        <v>364</v>
+        <v>261</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="H52">
         <v>404839120610</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J52" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -3941,28 +3813,28 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E53" t="s">
         <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
-      </c>
-      <c r="G53" t="s">
-        <v>365</v>
+        <v>262</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>441</v>
       </c>
       <c r="H53">
         <v>589306943235</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3976,28 +3848,28 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E54" t="s">
         <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" t="s">
-        <v>366</v>
+        <v>263</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="H54">
         <v>532840442107</v>
       </c>
       <c r="I54" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4011,28 +3883,28 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E55" t="s">
         <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" t="s">
-        <v>367</v>
+        <v>264</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="H55">
         <v>906299273502</v>
       </c>
       <c r="I55" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>366</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4046,28 +3918,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E56" t="s">
         <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" t="s">
-        <v>368</v>
+        <v>265</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="H56">
         <v>936633830009</v>
       </c>
       <c r="I56" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J56" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4081,28 +3953,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E57" t="s">
         <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>269</v>
-      </c>
-      <c r="G57" t="s">
-        <v>369</v>
+        <v>266</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="H57">
         <v>945573911962</v>
       </c>
       <c r="I57" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J57" t="s">
-        <v>471</v>
+        <v>368</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4116,28 +3988,28 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E58" t="s">
         <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
-      </c>
-      <c r="G58" t="s">
-        <v>370</v>
+        <v>267</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="H58">
         <v>661091207706</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J58" t="s">
-        <v>472</v>
+        <v>369</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4151,28 +4023,28 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E59" t="s">
         <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
-      </c>
-      <c r="G59" t="s">
-        <v>371</v>
+        <v>268</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="H59">
         <v>811738304307</v>
       </c>
       <c r="I59" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J59" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4186,28 +4058,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E60" t="s">
         <v>212</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
-      </c>
-      <c r="G60" t="s">
-        <v>372</v>
+        <v>269</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>448</v>
       </c>
       <c r="H60">
         <v>911171415256</v>
       </c>
       <c r="I60" t="s">
+        <v>312</v>
+      </c>
+      <c r="J60" t="s">
+        <v>371</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J60" t="s">
-        <v>474</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4221,28 +4093,28 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E61" t="s">
         <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
-      </c>
-      <c r="G61" t="s">
-        <v>373</v>
+        <v>270</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="H61">
         <v>437987573852</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>372</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4256,28 +4128,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E62" t="s">
         <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
-      </c>
-      <c r="G62" t="s">
-        <v>374</v>
+        <v>271</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="H62">
         <v>464497405803</v>
       </c>
       <c r="I62" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J62" t="s">
-        <v>476</v>
+        <v>373</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4291,28 +4163,28 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E63" t="s">
         <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
-      </c>
-      <c r="G63" t="s">
-        <v>375</v>
+        <v>272</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="H63">
         <v>539716716962</v>
       </c>
       <c r="I63" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>374</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4326,28 +4198,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E64" t="s">
         <v>213</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
-      </c>
-      <c r="G64" t="s">
-        <v>376</v>
+        <v>273</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="H64">
         <v>663727264593</v>
       </c>
       <c r="I64" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J64" t="s">
-        <v>478</v>
+        <v>375</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4361,28 +4233,28 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E65" t="s">
         <v>213</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
-      </c>
-      <c r="G65" t="s">
-        <v>377</v>
+        <v>274</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="H65">
         <v>114969427073</v>
       </c>
       <c r="I65" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J65" t="s">
-        <v>479</v>
+        <v>376</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4396,28 +4268,28 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E66" t="s">
         <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
-      </c>
-      <c r="G66" t="s">
-        <v>378</v>
+        <v>275</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="H66">
         <v>283175382966</v>
       </c>
       <c r="I66" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4431,28 +4303,28 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E67" t="s">
         <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
-      </c>
-      <c r="G67" t="s">
-        <v>379</v>
+        <v>276</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="H67">
         <v>178944104188</v>
       </c>
       <c r="I67" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J67" t="s">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4466,28 +4338,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E68" t="s">
         <v>213</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
-      </c>
-      <c r="G68" t="s">
-        <v>380</v>
+        <v>277</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="H68">
         <v>896075448848</v>
       </c>
       <c r="I68" t="s">
+        <v>312</v>
+      </c>
+      <c r="J68" t="s">
+        <v>379</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="J68" t="s">
-        <v>482</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4501,28 +4373,28 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E69" t="s">
         <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" t="s">
-        <v>381</v>
+        <v>278</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="H69">
         <v>292599663761</v>
       </c>
       <c r="I69" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J69" t="s">
-        <v>483</v>
+        <v>380</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4536,28 +4408,28 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E70" t="s">
         <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>282</v>
-      </c>
-      <c r="G70" t="s">
-        <v>382</v>
+        <v>279</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>458</v>
       </c>
       <c r="H70">
         <v>675046921235</v>
       </c>
       <c r="I70" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J70" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4571,28 +4443,28 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E71" t="s">
         <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>283</v>
-      </c>
-      <c r="G71" t="s">
-        <v>383</v>
+        <v>280</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="H71">
         <v>352554719145</v>
       </c>
       <c r="I71" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J71" t="s">
-        <v>485</v>
+        <v>382</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4606,28 +4478,28 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E72" t="s">
         <v>212</v>
       </c>
       <c r="F72" t="s">
-        <v>284</v>
-      </c>
-      <c r="G72" t="s">
-        <v>384</v>
+        <v>281</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="H72">
         <v>109798335793</v>
       </c>
       <c r="I72" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J72" t="s">
-        <v>486</v>
+        <v>383</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4641,28 +4513,28 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E73" t="s">
         <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>285</v>
-      </c>
-      <c r="G73" t="s">
-        <v>385</v>
+        <v>282</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="H73">
         <v>396867183272</v>
       </c>
       <c r="I73" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J73" t="s">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4676,28 +4548,28 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E74" t="s">
         <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
-      </c>
-      <c r="G74" t="s">
-        <v>386</v>
+        <v>283</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="H74">
         <v>606208023697</v>
       </c>
       <c r="I74" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J74" t="s">
-        <v>488</v>
+        <v>385</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4711,28 +4583,28 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E75" t="s">
         <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
-      </c>
-      <c r="G75" t="s">
-        <v>387</v>
+        <v>284</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="H75">
         <v>371774400623</v>
       </c>
       <c r="I75" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J75" t="s">
-        <v>489</v>
+        <v>386</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4746,28 +4618,28 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E76" t="s">
         <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
-      </c>
-      <c r="G76" t="s">
-        <v>388</v>
+        <v>285</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="H76">
         <v>653380274106</v>
       </c>
       <c r="I76" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J76" t="s">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4781,28 +4653,28 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E77" t="s">
         <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>289</v>
-      </c>
-      <c r="G77" t="s">
-        <v>389</v>
+        <v>286</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="H77">
         <v>647767630124</v>
       </c>
       <c r="I77" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J77" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4816,28 +4688,28 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E78" t="s">
         <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>290</v>
-      </c>
-      <c r="G78" t="s">
-        <v>390</v>
+        <v>287</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="H78">
         <v>940663628703</v>
       </c>
       <c r="I78" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J78" t="s">
-        <v>492</v>
+        <v>389</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4851,28 +4723,28 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E79" t="s">
         <v>211</v>
       </c>
       <c r="F79" t="s">
-        <v>291</v>
-      </c>
-      <c r="G79" t="s">
-        <v>391</v>
+        <v>288</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="H79">
         <v>235281864271</v>
       </c>
       <c r="I79" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>390</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4886,28 +4758,28 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
         <v>213</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
-      </c>
-      <c r="G80" t="s">
-        <v>392</v>
+        <v>289</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="H80">
         <v>124655591663</v>
       </c>
       <c r="I80" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J80" t="s">
-        <v>494</v>
+        <v>391</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4921,28 +4793,28 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E81" t="s">
         <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
-      </c>
-      <c r="G81" t="s">
-        <v>393</v>
+        <v>290</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="H81">
         <v>426994426676</v>
       </c>
       <c r="I81" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J81" t="s">
-        <v>495</v>
+        <v>392</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4956,28 +4828,28 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E82" t="s">
         <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
-      </c>
-      <c r="G82" t="s">
-        <v>394</v>
+        <v>291</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="H82">
         <v>542054283115</v>
       </c>
       <c r="I82" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J82" t="s">
-        <v>496</v>
+        <v>393</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4991,28 +4863,28 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E83" t="s">
         <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" t="s">
-        <v>395</v>
+        <v>292</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>422</v>
       </c>
       <c r="H83">
         <v>975343657768</v>
       </c>
       <c r="I83" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J83" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5026,28 +4898,28 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
         <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
-      </c>
-      <c r="G84" t="s">
-        <v>396</v>
+        <v>293</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="H84">
         <v>849025645768</v>
       </c>
       <c r="I84" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J84" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5061,28 +4933,28 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
         <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>297</v>
-      </c>
-      <c r="G85" t="s">
-        <v>397</v>
+        <v>294</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="H85">
         <v>849944420137</v>
       </c>
       <c r="I85" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J85" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5096,28 +4968,28 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E86" t="s">
         <v>213</v>
       </c>
       <c r="F86" t="s">
-        <v>298</v>
-      </c>
-      <c r="G86" t="s">
-        <v>398</v>
+        <v>295</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="H86">
         <v>945851345217</v>
       </c>
       <c r="I86" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J86" t="s">
-        <v>500</v>
+        <v>397</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5131,28 +5003,28 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E87" t="s">
         <v>213</v>
       </c>
       <c r="F87" t="s">
-        <v>299</v>
-      </c>
-      <c r="G87" t="s">
-        <v>399</v>
+        <v>296</v>
+      </c>
+      <c r="G87">
+        <v>7812885388</v>
       </c>
       <c r="H87">
         <v>232347527319</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J87" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5166,28 +5038,28 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E88" t="s">
         <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>300</v>
-      </c>
-      <c r="G88" t="s">
-        <v>400</v>
+        <v>297</v>
+      </c>
+      <c r="G88">
+        <v>7812885388</v>
       </c>
       <c r="H88">
         <v>451429459451</v>
       </c>
       <c r="I88" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J88" t="s">
-        <v>502</v>
+        <v>399</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5201,28 +5073,28 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E89" t="s">
         <v>212</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
-      </c>
-      <c r="G89" t="s">
-        <v>401</v>
+        <v>298</v>
+      </c>
+      <c r="G89">
+        <v>7812885388</v>
       </c>
       <c r="H89">
         <v>576939014732</v>
       </c>
       <c r="I89" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J89" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5236,28 +5108,28 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E90" t="s">
         <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
-      </c>
-      <c r="G90" t="s">
-        <v>402</v>
+        <v>299</v>
+      </c>
+      <c r="G90">
+        <v>7812885388</v>
       </c>
       <c r="H90">
         <v>620748854885</v>
       </c>
       <c r="I90" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J90" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5271,28 +5143,28 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E91" t="s">
         <v>213</v>
       </c>
       <c r="F91" t="s">
-        <v>303</v>
-      </c>
-      <c r="G91" t="s">
-        <v>403</v>
+        <v>300</v>
+      </c>
+      <c r="G91">
+        <v>7812885388</v>
       </c>
       <c r="H91">
         <v>471621101897</v>
       </c>
       <c r="I91" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J91" t="s">
-        <v>505</v>
+        <v>402</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5306,28 +5178,28 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E92" t="s">
         <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>304</v>
-      </c>
-      <c r="G92" t="s">
-        <v>404</v>
+        <v>301</v>
+      </c>
+      <c r="G92">
+        <v>7812885388</v>
       </c>
       <c r="H92">
         <v>324642682499</v>
       </c>
       <c r="I92" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J92" t="s">
-        <v>506</v>
+        <v>403</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>516</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5341,28 +5213,28 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E93" t="s">
         <v>212</v>
       </c>
       <c r="F93" t="s">
-        <v>305</v>
-      </c>
-      <c r="G93" t="s">
-        <v>405</v>
+        <v>302</v>
+      </c>
+      <c r="G93">
+        <v>7812885388</v>
       </c>
       <c r="H93">
         <v>633322462323</v>
       </c>
       <c r="I93" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J93" t="s">
-        <v>507</v>
+        <v>404</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5376,28 +5248,28 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E94" t="s">
         <v>213</v>
       </c>
       <c r="F94" t="s">
-        <v>306</v>
-      </c>
-      <c r="G94" t="s">
-        <v>406</v>
+        <v>303</v>
+      </c>
+      <c r="G94">
+        <v>7812885388</v>
       </c>
       <c r="H94">
         <v>926476616136</v>
       </c>
       <c r="I94" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J94" t="s">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5411,28 +5283,28 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E95" t="s">
         <v>213</v>
       </c>
       <c r="F95" t="s">
-        <v>307</v>
-      </c>
-      <c r="G95" t="s">
-        <v>407</v>
+        <v>304</v>
+      </c>
+      <c r="G95">
+        <v>7812885388</v>
       </c>
       <c r="H95">
         <v>148430939841</v>
       </c>
       <c r="I95" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J95" t="s">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5446,28 +5318,28 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E96" t="s">
         <v>211</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
-      </c>
-      <c r="G96" t="s">
-        <v>408</v>
+        <v>305</v>
+      </c>
+      <c r="G96">
+        <v>7812885388</v>
       </c>
       <c r="H96">
         <v>176347248109</v>
       </c>
       <c r="I96" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J96" t="s">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5481,28 +5353,28 @@
         <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E97" t="s">
         <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>309</v>
-      </c>
-      <c r="G97" t="s">
-        <v>409</v>
+        <v>306</v>
+      </c>
+      <c r="G97">
+        <v>7812885388</v>
       </c>
       <c r="H97">
         <v>362078731018</v>
       </c>
       <c r="I97" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J97" t="s">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>521</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5516,28 +5388,28 @@
         <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E98" t="s">
         <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
-      </c>
-      <c r="G98" t="s">
-        <v>410</v>
+        <v>307</v>
+      </c>
+      <c r="G98">
+        <v>7812885388</v>
       </c>
       <c r="H98">
         <v>357518411061</v>
       </c>
       <c r="I98" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J98" t="s">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5551,28 +5423,28 @@
         <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E99" t="s">
         <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
-      </c>
-      <c r="G99" t="s">
-        <v>411</v>
+        <v>308</v>
+      </c>
+      <c r="G99">
+        <v>7812885388</v>
       </c>
       <c r="H99">
         <v>487850252122</v>
       </c>
       <c r="I99" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="J99" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5586,28 +5458,28 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
         <v>211</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
-      </c>
-      <c r="G100" t="s">
-        <v>412</v>
+        <v>309</v>
+      </c>
+      <c r="G100">
+        <v>7812885388</v>
       </c>
       <c r="H100">
         <v>499266611188</v>
       </c>
       <c r="I100" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J100" t="s">
-        <v>514</v>
+        <v>411</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5621,31 +5493,37 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>520</v>
+        <v>417</v>
       </c>
       <c r="E101" t="s">
         <v>213</v>
       </c>
       <c r="F101" t="s">
-        <v>313</v>
-      </c>
-      <c r="G101" t="s">
-        <v>413</v>
+        <v>310</v>
+      </c>
+      <c r="G101">
+        <v>7812885388</v>
       </c>
       <c r="H101">
         <v>983969674177</v>
       </c>
       <c r="I101" t="s">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="J101" t="s">
-        <v>515</v>
+        <v>412</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{78A67852-70E1-4358-AD88-68085C9FE434}"/>
+    <hyperlink ref="F23" r:id="rId2" xr:uid="{8C835B97-D5DE-4A1B-A621-4D714C9FD23F}"/>
+    <hyperlink ref="F22" r:id="rId3" xr:uid="{A2082D9D-AA4A-4236-BCD4-7F07266FC061}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FB692-56B6-4609-BB0B-E6C6D950C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BF82D4-28EF-4673-ACE5-0C52FDC25B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="476">
   <si>
     <t>emp_id</t>
   </si>
@@ -1536,13 +1536,25 @@
   </si>
   <si>
     <t>vinothg0618@gmail.com</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>KKL</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>FT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,6 +1589,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1645,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1659,6 +1678,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1965,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,7 +2004,7 @@
     <col min="10" max="10" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,8 +2038,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2051,8 +2076,11 @@
       <c r="K2" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2086,8 +2114,11 @@
       <c r="K3" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2121,8 +2152,11 @@
       <c r="K4" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2156,8 +2190,11 @@
       <c r="K5" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2191,8 +2228,11 @@
       <c r="K6" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2226,8 +2266,11 @@
       <c r="K7" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2261,8 +2304,11 @@
       <c r="K8" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2296,8 +2342,11 @@
       <c r="K9" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2331,8 +2380,11 @@
       <c r="K10" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2366,8 +2418,11 @@
       <c r="K11" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2401,8 +2456,11 @@
       <c r="K12" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2436,8 +2494,11 @@
       <c r="K13" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2471,8 +2532,11 @@
       <c r="K14" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2506,8 +2570,11 @@
       <c r="K15" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2541,8 +2608,11 @@
       <c r="K16" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2576,8 +2646,11 @@
       <c r="K17" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2611,8 +2684,11 @@
       <c r="K18" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2646,8 +2722,11 @@
       <c r="K19" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2681,8 +2760,11 @@
       <c r="K20" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2716,8 +2798,11 @@
       <c r="K21" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2751,8 +2836,11 @@
       <c r="K22" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2786,8 +2874,11 @@
       <c r="K23" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2821,8 +2912,11 @@
       <c r="K24" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2856,8 +2950,11 @@
       <c r="K25" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2891,8 +2988,11 @@
       <c r="K26" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2926,8 +3026,11 @@
       <c r="K27" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2961,8 +3064,11 @@
       <c r="K28" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2996,8 +3102,11 @@
       <c r="K29" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3031,8 +3140,11 @@
       <c r="K30" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3066,8 +3178,11 @@
       <c r="K31" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3101,8 +3216,11 @@
       <c r="K32" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3136,8 +3254,11 @@
       <c r="K33" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3171,8 +3292,11 @@
       <c r="K34" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3206,8 +3330,11 @@
       <c r="K35" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3241,8 +3368,11 @@
       <c r="K36" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3276,8 +3406,11 @@
       <c r="K37" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3311,8 +3444,11 @@
       <c r="K38" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3346,8 +3482,11 @@
       <c r="K39" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3381,8 +3520,11 @@
       <c r="K40" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3416,8 +3558,11 @@
       <c r="K41" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3451,8 +3596,11 @@
       <c r="K42" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3486,8 +3634,11 @@
       <c r="K43" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3521,8 +3672,11 @@
       <c r="K44" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3556,8 +3710,11 @@
       <c r="K45" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3591,8 +3748,11 @@
       <c r="K46" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3626,8 +3786,11 @@
       <c r="K47" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3661,8 +3824,11 @@
       <c r="K48" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3696,8 +3862,11 @@
       <c r="K49" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3731,8 +3900,11 @@
       <c r="K50" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3766,8 +3938,11 @@
       <c r="K51" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3801,8 +3976,11 @@
       <c r="K52" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3836,8 +4014,11 @@
       <c r="K53" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3871,8 +4052,11 @@
       <c r="K54" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3906,8 +4090,11 @@
       <c r="K55" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3941,8 +4128,11 @@
       <c r="K56" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3976,8 +4166,11 @@
       <c r="K57" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4011,8 +4204,11 @@
       <c r="K58" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4046,8 +4242,11 @@
       <c r="K59" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4081,8 +4280,11 @@
       <c r="K60" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4116,8 +4318,11 @@
       <c r="K61" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4151,8 +4356,11 @@
       <c r="K62" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4186,8 +4394,11 @@
       <c r="K63" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4221,8 +4432,11 @@
       <c r="K64" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4256,8 +4470,11 @@
       <c r="K65" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4291,8 +4508,11 @@
       <c r="K66" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4326,8 +4546,11 @@
       <c r="K67" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4361,8 +4584,11 @@
       <c r="K68" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4396,8 +4622,11 @@
       <c r="K69" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4431,8 +4660,11 @@
       <c r="K70" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4466,8 +4698,11 @@
       <c r="K71" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4501,8 +4736,11 @@
       <c r="K72" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4536,8 +4774,11 @@
       <c r="K73" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4571,8 +4812,11 @@
       <c r="K74" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4606,8 +4850,11 @@
       <c r="K75" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4641,8 +4888,11 @@
       <c r="K76" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4676,8 +4926,11 @@
       <c r="K77" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4711,8 +4964,11 @@
       <c r="K78" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4746,8 +5002,11 @@
       <c r="K79" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4781,8 +5040,11 @@
       <c r="K80" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4816,8 +5078,11 @@
       <c r="K81" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4851,8 +5116,11 @@
       <c r="K82" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4886,8 +5154,11 @@
       <c r="K83" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4921,8 +5192,11 @@
       <c r="K84" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4956,8 +5230,11 @@
       <c r="K85" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4991,8 +5268,11 @@
       <c r="K86" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5026,8 +5306,11 @@
       <c r="K87" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5061,8 +5344,11 @@
       <c r="K88" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5096,8 +5382,11 @@
       <c r="K89" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5131,8 +5420,11 @@
       <c r="K90" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L90" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5166,8 +5458,11 @@
       <c r="K91" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5201,8 +5496,11 @@
       <c r="K92" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5236,8 +5534,11 @@
       <c r="K93" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5271,8 +5572,11 @@
       <c r="K94" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5306,8 +5610,11 @@
       <c r="K95" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5341,8 +5648,11 @@
       <c r="K96" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5376,8 +5686,11 @@
       <c r="K97" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5411,8 +5724,11 @@
       <c r="K98" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5446,8 +5762,11 @@
       <c r="K99" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5481,8 +5800,11 @@
       <c r="K100" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5515,6 +5837,9 @@
       </c>
       <c r="K101" s="2" t="s">
         <v>414</v>
+      </c>
+      <c r="L101" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BF82D4-28EF-4673-ACE5-0C52FDC25B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CF897-654F-4186-9D8F-C42DDCD52B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my Project\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CF897-654F-4186-9D8F-C42DDCD52B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D872E-8098-4391-9C15-55C299BD5D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="475">
   <si>
     <t>emp_id</t>
   </si>
@@ -1374,9 +1374,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>sabarinathan.project@gmail.com</t>
@@ -1989,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2059,7 +2056,7 @@
         <v>210</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G2">
         <v>7812885388</v>
@@ -2077,7 +2074,7 @@
         <v>414</v>
       </c>
       <c r="L2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2115,7 +2112,7 @@
         <v>414</v>
       </c>
       <c r="L3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2153,7 +2150,7 @@
         <v>414</v>
       </c>
       <c r="L4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2191,7 +2188,7 @@
         <v>414</v>
       </c>
       <c r="L5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2229,7 +2226,7 @@
         <v>414</v>
       </c>
       <c r="L6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2264,10 +2261,10 @@
         <v>318</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2305,7 +2302,7 @@
         <v>415</v>
       </c>
       <c r="L8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2343,7 +2340,7 @@
         <v>414</v>
       </c>
       <c r="L9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,7 +2378,7 @@
         <v>414</v>
       </c>
       <c r="L10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2419,7 +2416,7 @@
         <v>413</v>
       </c>
       <c r="L11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2457,7 +2454,7 @@
         <v>413</v>
       </c>
       <c r="L12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2492,10 +2489,10 @@
         <v>324</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2530,10 +2527,10 @@
         <v>325</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2571,7 +2568,7 @@
         <v>414</v>
       </c>
       <c r="L15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2609,7 +2606,7 @@
         <v>414</v>
       </c>
       <c r="L16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2644,10 +2641,10 @@
         <v>328</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2685,7 +2682,7 @@
         <v>414</v>
       </c>
       <c r="L18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2723,7 +2720,7 @@
         <v>414</v>
       </c>
       <c r="L19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2746,7 +2743,7 @@
         <v>231</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H20">
         <v>121216267981</v>
@@ -2761,7 +2758,7 @@
         <v>415</v>
       </c>
       <c r="L20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2784,7 +2781,7 @@
         <v>232</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H21">
         <v>195494225870</v>
@@ -2799,7 +2796,7 @@
         <v>414</v>
       </c>
       <c r="L21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2819,10 +2816,10 @@
         <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="H22">
         <v>537438151053</v>
@@ -2837,7 +2834,7 @@
         <v>414</v>
       </c>
       <c r="L22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2857,10 +2854,10 @@
         <v>213</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H23">
         <v>897446102202</v>
@@ -2875,7 +2872,7 @@
         <v>414</v>
       </c>
       <c r="L23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2898,7 +2895,7 @@
         <v>233</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H24">
         <v>937187699111</v>
@@ -2913,7 +2910,7 @@
         <v>414</v>
       </c>
       <c r="L24" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2936,7 +2933,7 @@
         <v>234</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H25">
         <v>779818943791</v>
@@ -2951,7 +2948,7 @@
         <v>414</v>
       </c>
       <c r="L25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2986,10 +2983,10 @@
         <v>337</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3024,10 +3021,10 @@
         <v>338</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3065,7 +3062,7 @@
         <v>415</v>
       </c>
       <c r="L28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3103,7 +3100,7 @@
         <v>414</v>
       </c>
       <c r="L29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3141,7 +3138,7 @@
         <v>414</v>
       </c>
       <c r="L30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3179,7 +3176,7 @@
         <v>413</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3217,7 +3214,7 @@
         <v>413</v>
       </c>
       <c r="L32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3252,10 +3249,10 @@
         <v>344</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3290,10 +3287,10 @@
         <v>345</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3331,7 +3328,7 @@
         <v>414</v>
       </c>
       <c r="L35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3369,7 +3366,7 @@
         <v>414</v>
       </c>
       <c r="L36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3404,10 +3401,10 @@
         <v>348</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3430,7 +3427,7 @@
         <v>247</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H38">
         <v>539277202439</v>
@@ -3445,7 +3442,7 @@
         <v>414</v>
       </c>
       <c r="L38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3468,7 +3465,7 @@
         <v>248</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H39">
         <v>458703642524</v>
@@ -3483,7 +3480,7 @@
         <v>414</v>
       </c>
       <c r="L39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3506,7 +3503,7 @@
         <v>249</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H40">
         <v>143951791695</v>
@@ -3521,7 +3518,7 @@
         <v>415</v>
       </c>
       <c r="L40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3544,7 +3541,7 @@
         <v>250</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H41">
         <v>702572597624</v>
@@ -3559,7 +3556,7 @@
         <v>414</v>
       </c>
       <c r="L41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3582,7 +3579,7 @@
         <v>251</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H42">
         <v>781452946044</v>
@@ -3597,7 +3594,7 @@
         <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3620,7 +3617,7 @@
         <v>252</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H43">
         <v>102283712742</v>
@@ -3635,7 +3632,7 @@
         <v>414</v>
       </c>
       <c r="L43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3658,7 +3655,7 @@
         <v>253</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H44">
         <v>727752747523</v>
@@ -3673,7 +3670,7 @@
         <v>414</v>
       </c>
       <c r="L44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3696,7 +3693,7 @@
         <v>254</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H45">
         <v>295898199420</v>
@@ -3711,7 +3708,7 @@
         <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3734,7 +3731,7 @@
         <v>255</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H46">
         <v>515687510305</v>
@@ -3749,7 +3746,7 @@
         <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3772,7 +3769,7 @@
         <v>256</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H47">
         <v>621685561996</v>
@@ -3784,10 +3781,10 @@
         <v>358</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3810,7 +3807,7 @@
         <v>257</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H48">
         <v>788093413338</v>
@@ -3825,7 +3822,7 @@
         <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3848,7 +3845,7 @@
         <v>258</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H49">
         <v>474760840752</v>
@@ -3863,7 +3860,7 @@
         <v>414</v>
       </c>
       <c r="L49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3886,7 +3883,7 @@
         <v>259</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H50">
         <v>963698244498</v>
@@ -3901,7 +3898,7 @@
         <v>414</v>
       </c>
       <c r="L50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3924,7 +3921,7 @@
         <v>260</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H51">
         <v>544948800338</v>
@@ -3939,7 +3936,7 @@
         <v>413</v>
       </c>
       <c r="L51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3962,7 +3959,7 @@
         <v>261</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H52">
         <v>404839120610</v>
@@ -3977,7 +3974,7 @@
         <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4000,7 +3997,7 @@
         <v>262</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H53">
         <v>589306943235</v>
@@ -4012,10 +4009,10 @@
         <v>364</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4038,7 +4035,7 @@
         <v>263</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H54">
         <v>532840442107</v>
@@ -4050,10 +4047,10 @@
         <v>365</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4076,7 +4073,7 @@
         <v>264</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H55">
         <v>906299273502</v>
@@ -4091,7 +4088,7 @@
         <v>414</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4114,7 +4111,7 @@
         <v>265</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H56">
         <v>936633830009</v>
@@ -4129,7 +4126,7 @@
         <v>414</v>
       </c>
       <c r="L56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4152,7 +4149,7 @@
         <v>266</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H57">
         <v>945573911962</v>
@@ -4164,10 +4161,10 @@
         <v>368</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4190,7 +4187,7 @@
         <v>267</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H58">
         <v>661091207706</v>
@@ -4205,7 +4202,7 @@
         <v>414</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4228,7 +4225,7 @@
         <v>268</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H59">
         <v>811738304307</v>
@@ -4243,7 +4240,7 @@
         <v>414</v>
       </c>
       <c r="L59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4266,7 +4263,7 @@
         <v>269</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H60">
         <v>911171415256</v>
@@ -4281,7 +4278,7 @@
         <v>415</v>
       </c>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4304,7 +4301,7 @@
         <v>270</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H61">
         <v>437987573852</v>
@@ -4319,7 +4316,7 @@
         <v>414</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4342,7 +4339,7 @@
         <v>271</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H62">
         <v>464497405803</v>
@@ -4357,7 +4354,7 @@
         <v>414</v>
       </c>
       <c r="L62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4380,7 +4377,7 @@
         <v>272</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H63">
         <v>539716716962</v>
@@ -4395,7 +4392,7 @@
         <v>414</v>
       </c>
       <c r="L63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4418,7 +4415,7 @@
         <v>273</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H64">
         <v>663727264593</v>
@@ -4433,7 +4430,7 @@
         <v>414</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4456,7 +4453,7 @@
         <v>274</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H65">
         <v>114969427073</v>
@@ -4471,7 +4468,7 @@
         <v>414</v>
       </c>
       <c r="L65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4494,7 +4491,7 @@
         <v>275</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H66">
         <v>283175382966</v>
@@ -4509,7 +4506,7 @@
         <v>414</v>
       </c>
       <c r="L66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4532,7 +4529,7 @@
         <v>276</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H67">
         <v>178944104188</v>
@@ -4544,10 +4541,10 @@
         <v>378</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4570,7 +4567,7 @@
         <v>277</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H68">
         <v>896075448848</v>
@@ -4585,7 +4582,7 @@
         <v>415</v>
       </c>
       <c r="L68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4608,7 +4605,7 @@
         <v>278</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H69">
         <v>292599663761</v>
@@ -4623,7 +4620,7 @@
         <v>414</v>
       </c>
       <c r="L69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4646,7 +4643,7 @@
         <v>279</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H70">
         <v>675046921235</v>
@@ -4661,7 +4658,7 @@
         <v>414</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4684,7 +4681,7 @@
         <v>280</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H71">
         <v>352554719145</v>
@@ -4699,7 +4696,7 @@
         <v>413</v>
       </c>
       <c r="L71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4722,7 +4719,7 @@
         <v>281</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H72">
         <v>109798335793</v>
@@ -4737,7 +4734,7 @@
         <v>413</v>
       </c>
       <c r="L72" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4760,7 +4757,7 @@
         <v>282</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H73">
         <v>396867183272</v>
@@ -4772,10 +4769,10 @@
         <v>384</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L73" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4798,7 +4795,7 @@
         <v>283</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H74">
         <v>606208023697</v>
@@ -4810,10 +4807,10 @@
         <v>385</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L74" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4836,7 +4833,7 @@
         <v>284</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H75">
         <v>371774400623</v>
@@ -4851,7 +4848,7 @@
         <v>414</v>
       </c>
       <c r="L75" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4874,7 +4871,7 @@
         <v>285</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H76">
         <v>653380274106</v>
@@ -4889,7 +4886,7 @@
         <v>414</v>
       </c>
       <c r="L76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4912,7 +4909,7 @@
         <v>286</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H77">
         <v>647767630124</v>
@@ -4924,10 +4921,10 @@
         <v>388</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4950,7 +4947,7 @@
         <v>287</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H78">
         <v>940663628703</v>
@@ -4965,7 +4962,7 @@
         <v>414</v>
       </c>
       <c r="L78" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4988,7 +4985,7 @@
         <v>288</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H79">
         <v>235281864271</v>
@@ -5003,7 +5000,7 @@
         <v>414</v>
       </c>
       <c r="L79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5026,7 +5023,7 @@
         <v>289</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H80">
         <v>124655591663</v>
@@ -5041,7 +5038,7 @@
         <v>415</v>
       </c>
       <c r="L80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -5064,7 +5061,7 @@
         <v>290</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H81">
         <v>426994426676</v>
@@ -5079,7 +5076,7 @@
         <v>414</v>
       </c>
       <c r="L81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -5102,7 +5099,7 @@
         <v>291</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H82">
         <v>542054283115</v>
@@ -5117,7 +5114,7 @@
         <v>414</v>
       </c>
       <c r="L82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5140,7 +5137,7 @@
         <v>292</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H83">
         <v>975343657768</v>
@@ -5155,7 +5152,7 @@
         <v>414</v>
       </c>
       <c r="L83" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -5178,7 +5175,7 @@
         <v>293</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H84">
         <v>849025645768</v>
@@ -5193,7 +5190,7 @@
         <v>414</v>
       </c>
       <c r="L84" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -5216,7 +5213,7 @@
         <v>294</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H85">
         <v>849944420137</v>
@@ -5231,7 +5228,7 @@
         <v>414</v>
       </c>
       <c r="L85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5254,7 +5251,7 @@
         <v>295</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H86">
         <v>945851345217</v>
@@ -5269,7 +5266,7 @@
         <v>414</v>
       </c>
       <c r="L86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5304,10 +5301,10 @@
         <v>398</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5345,7 +5342,7 @@
         <v>415</v>
       </c>
       <c r="L88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5383,7 +5380,7 @@
         <v>414</v>
       </c>
       <c r="L89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5421,7 +5418,7 @@
         <v>414</v>
       </c>
       <c r="L90" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5459,7 +5456,7 @@
         <v>413</v>
       </c>
       <c r="L91" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5497,7 +5494,7 @@
         <v>413</v>
       </c>
       <c r="L92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -5532,10 +5529,10 @@
         <v>404</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -5570,10 +5567,10 @@
         <v>405</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L94" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5611,7 +5608,7 @@
         <v>414</v>
       </c>
       <c r="L95" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -5649,7 +5646,7 @@
         <v>414</v>
       </c>
       <c r="L96" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5684,10 +5681,10 @@
         <v>408</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5725,7 +5722,7 @@
         <v>414</v>
       </c>
       <c r="L98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5763,7 +5760,7 @@
         <v>414</v>
       </c>
       <c r="L99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5801,7 +5798,7 @@
         <v>415</v>
       </c>
       <c r="L100" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5839,7 +5836,7 @@
         <v>414</v>
       </c>
       <c r="L101" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/employee_data1.xlsx
+++ b/app/static/excel/employee_data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\KKL-Attendance-System\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDesktop\Projects\Kanchi Karppram Project\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D872E-8098-4391-9C15-55C299BD5D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4E787-0E1E-4E1F-B3D0-5077BE8DA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>designation</t>
   </si>
   <si>
-    <t>workType</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -1545,6 +1542,9 @@
   </si>
   <si>
     <t>FT</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,31 +2012,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2044,19 +2044,19 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2">
         <v>7812885388</v>
@@ -2065,16 +2065,16 @@
         <v>648559061756</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2082,19 +2082,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3">
         <v>7812885388</v>
@@ -2103,16 +2103,16 @@
         <v>137952611474</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2120,19 +2120,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4">
         <v>7812885388</v>
@@ -2141,16 +2141,16 @@
         <v>706652989133</v>
       </c>
       <c r="I4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2158,19 +2158,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5">
         <v>7812885388</v>
@@ -2179,16 +2179,16 @@
         <v>403582754984</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2196,19 +2196,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G6">
         <v>7812885388</v>
@@ -2217,16 +2217,16 @@
         <v>315832342388</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2234,19 +2234,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7">
         <v>7812885388</v>
@@ -2255,16 +2255,16 @@
         <v>743091774687</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2272,19 +2272,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8">
         <v>7812885388</v>
@@ -2293,16 +2293,16 @@
         <v>431974422209</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2310,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9">
         <v>7812885388</v>
@@ -2331,16 +2331,16 @@
         <v>979780241502</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2348,19 +2348,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G10">
         <v>7812885388</v>
@@ -2369,16 +2369,16 @@
         <v>229497359664</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2386,19 +2386,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11">
         <v>7812885388</v>
@@ -2407,16 +2407,16 @@
         <v>597299568796</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2424,19 +2424,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12">
         <v>7812885388</v>
@@ -2445,16 +2445,16 @@
         <v>212379069599</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2462,19 +2462,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13">
         <v>7812885388</v>
@@ -2483,16 +2483,16 @@
         <v>206418354101</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2500,19 +2500,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14">
         <v>7812885388</v>
@@ -2521,16 +2521,16 @@
         <v>584192351886</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2538,19 +2538,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G15">
         <v>7812885388</v>
@@ -2559,16 +2559,16 @@
         <v>196039167242</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2576,19 +2576,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G16">
         <v>7812885388</v>
@@ -2597,16 +2597,16 @@
         <v>759042244189</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2614,19 +2614,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G17">
         <v>7812885388</v>
@@ -2635,16 +2635,16 @@
         <v>467607418144</v>
       </c>
       <c r="I17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2652,19 +2652,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G18">
         <v>7812885388</v>
@@ -2673,16 +2673,16 @@
         <v>364779979890</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2690,19 +2690,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19">
         <v>7812885388</v>
@@ -2711,16 +2711,16 @@
         <v>810667824063</v>
       </c>
       <c r="I19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2728,37 +2728,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20">
         <v>121216267981</v>
       </c>
       <c r="I20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2766,37 +2766,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H21">
         <v>195494225870</v>
       </c>
       <c r="I21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -2804,37 +2804,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>469</v>
       </c>
       <c r="H22">
         <v>537438151053</v>
       </c>
       <c r="I22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -2842,37 +2842,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H23">
         <v>897446102202</v>
       </c>
       <c r="I23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2880,37 +2880,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H24">
         <v>937187699111</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2918,37 +2918,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H25">
         <v>779818943791</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L25" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2956,19 +2956,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G26">
         <v>7812885388</v>
@@ -2977,16 +2977,16 @@
         <v>952701409513</v>
       </c>
       <c r="I26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2994,19 +2994,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27">
         <v>7812885388</v>
@@ -3015,16 +3015,16 @@
         <v>941799797738</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3032,19 +3032,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G28">
         <v>7812885388</v>
@@ -3053,16 +3053,16 @@
         <v>524429255605</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3070,19 +3070,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G29">
         <v>7812885388</v>
@@ -3091,16 +3091,16 @@
         <v>900167539314</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L29" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3108,19 +3108,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G30">
         <v>7812885388</v>
@@ -3129,16 +3129,16 @@
         <v>957134240394</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3146,19 +3146,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>7812885388</v>
@@ -3167,16 +3167,16 @@
         <v>612058883882</v>
       </c>
       <c r="I31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3184,19 +3184,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32">
         <v>7812885388</v>
@@ -3205,16 +3205,16 @@
         <v>463099846798</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3222,19 +3222,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33">
         <v>7812885388</v>
@@ -3243,16 +3243,16 @@
         <v>741983234529</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3260,19 +3260,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G34">
         <v>7812885388</v>
@@ -3281,16 +3281,16 @@
         <v>223588277519</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3298,19 +3298,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G35">
         <v>7812885388</v>
@@ -3319,16 +3319,16 @@
         <v>278144285507</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3336,19 +3336,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G36">
         <v>7812885388</v>
@@ -3357,16 +3357,16 @@
         <v>460588189626</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3374,19 +3374,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G37">
         <v>7812885388</v>
@@ -3395,16 +3395,16 @@
         <v>632069846593</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3412,37 +3412,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H38">
         <v>539277202439</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3450,37 +3450,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H39">
         <v>458703642524</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3488,37 +3488,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H40">
         <v>143951791695</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3526,37 +3526,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H41">
         <v>702572597624</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3564,37 +3564,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H42">
         <v>781452946044</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3602,37 +3602,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H43">
         <v>102283712742</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -3640,37 +3640,37 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H44">
         <v>727752747523</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3678,37 +3678,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H45">
         <v>295898199420</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,37 +3716,37 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H46">
         <v>515687510305</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3754,37 +3754,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H47">
         <v>621685561996</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3792,37 +3792,37 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H48">
         <v>788093413338</v>
       </c>
       <c r="I48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3830,37 +3830,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H49">
         <v>474760840752</v>
       </c>
       <c r="I49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3868,37 +3868,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H50">
         <v>963698244498</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3906,37 +3906,37 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H51">
         <v>544948800338</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3944,37 +3944,37 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H52">
         <v>404839120610</v>
       </c>
       <c r="I52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3982,37 +3982,37 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H53">
         <v>589306943235</v>
       </c>
       <c r="I53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -4020,37 +4020,37 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H54">
         <v>532840442107</v>
       </c>
       <c r="I54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -4058,37 +4058,37 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H55">
         <v>906299273502</v>
       </c>
       <c r="I55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4096,37 +4096,37 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H56">
         <v>936633830009</v>
       </c>
       <c r="I56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -4134,37 +4134,37 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H57">
         <v>945573911962</v>
       </c>
       <c r="I57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4172,37 +4172,37 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H58">
         <v>661091207706</v>
       </c>
       <c r="I58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4210,37 +4210,37 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H59">
         <v>811738304307</v>
       </c>
       <c r="I59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -4248,37 +4248,37 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H60">
         <v>911171415256</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -4286,37 +4286,37 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H61">
         <v>437987573852</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4324,37 +4324,37 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H62">
         <v>464497405803</v>
       </c>
       <c r="I62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4362,37 +4362,37 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H63">
         <v>539716716962</v>
       </c>
       <c r="I63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -4400,37 +4400,37 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H64">
         <v>663727264593</v>
       </c>
       <c r="I64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L64" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4438,37 +4438,37 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H65">
         <v>114969427073</v>
       </c>
       <c r="I65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4476,37 +4476,37 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H66">
         <v>283175382966</v>
       </c>
       <c r="I66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4514,37 +4514,37 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H67">
         <v>178944104188</v>
       </c>
       <c r="I67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4552,37 +4552,37 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H68">
         <v>896075448848</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -4590,37 +4590,37 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H69">
         <v>292599663761</v>
       </c>
       <c r="I69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4628,37 +4628,37 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H70">
         <v>675046921235</v>
       </c>
       <c r="I70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4666,37 +4666,37 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H71">
         <v>352554719145</v>
       </c>
       <c r="I71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -4704,37 +4704,37 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H72">
         <v>109798335793</v>
       </c>
       <c r="I72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L72" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4742,37 +4742,37 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H73">
         <v>396867183272</v>
       </c>
       <c r="I73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4780,37 +4780,37 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H74">
         <v>606208023697</v>
       </c>
       <c r="I74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L74" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4818,37 +4818,37 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H75">
         <v>371774400623</v>
       </c>
       <c r="I75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -4856,37 +4856,37 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H76">
         <v>653380274106</v>
       </c>
       <c r="I76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -4894,37 +4894,37 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H77">
         <v>647767630124</v>
       </c>
       <c r="I77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4932,37 +4932,37 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H78">
         <v>940663628703</v>
       </c>
       <c r="I78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4970,37 +4970,37 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H79">
         <v>235281864271</v>
       </c>
       <c r="I79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5008,37 +5008,37 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H80">
         <v>124655591663</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -5046,37 +5046,37 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H81">
         <v>426994426676</v>
       </c>
       <c r="I81" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L81" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -5084,37 +5084,37 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H82">
         <v>542054283115</v>
       </c>
       <c r="I82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L82" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5122,37 +5122,37 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H83">
         <v>975343657768</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -5160,37 +5160,37 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H84">
         <v>849025645768</v>
       </c>
       <c r="I84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L84" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -5198,37 +5198,37 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H85">
         <v>849944420137</v>
       </c>
       <c r="I85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L85" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5236,37 +5236,37 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H86">
         <v>945851345217</v>
       </c>
       <c r="I86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -5274,19 +5274,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87">
         <v>7812885388</v>
@@ -5295,16 +5295,16 @@
         <v>232347527319</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5312,19 +5312,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G88">
         <v>7812885388</v>
@@ -5333,16 +5333,16 @@
         <v>451429459451</v>
       </c>
       <c r="I88" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5350,19 +5350,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G89">
         <v>7812885388</v>
@@ -5371,16 +5371,16 @@
         <v>576939014732</v>
       </c>
       <c r="I89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J89" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5388,19 +5388,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G90">
         <v>7812885388</v>
@@ -5409,16 +5409,16 @@
         <v>620748854885</v>
       </c>
       <c r="I90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5426,19 +5426,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G91">
         <v>7812885388</v>
@@ -5447,16 +5447,16 @@
         <v>471621101897</v>
       </c>
       <c r="I91" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5464,19 +5464,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G92">
         <v>7812885388</v>
@@ -5485,16 +5485,16 @@
         <v>324642682499</v>
       </c>
       <c r="I92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -5502,19 +5502,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G93">
         <v>7812885388</v>
@@ -5523,16 +5523,16 @@
         <v>633322462323</v>
       </c>
       <c r="I93" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J93" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -5540,19 +5540,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G94">
         <v>7812885388</v>
@@ -5561,16 +5561,16 @@
         <v>926476616136</v>
       </c>
       <c r="I94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5578,19 +5578,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G95">
         <v>7812885388</v>
@@ -5599,16 +5599,16 @@
         <v>148430939841</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -5616,19 +5616,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G96">
         <v>7812885388</v>
@@ -5637,16 +5637,16 @@
         <v>176347248109</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5654,19 +5654,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G97">
         <v>7812885388</v>
@@ -5675,16 +5675,16 @@
         <v>362078731018</v>
       </c>
       <c r="I97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J97" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5692,19 +5692,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G98">
         <v>7812885388</v>
@@ -5713,16 +5713,16 @@
         <v>357518411061</v>
       </c>
       <c r="I98" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J98" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L98" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5730,19 +5730,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F99" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G99">
         <v>7812885388</v>
@@ -5751,16 +5751,16 @@
         <v>487850252122</v>
       </c>
       <c r="I99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5768,19 +5768,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F100" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G100">
         <v>7812885388</v>
@@ -5789,16 +5789,16 @@
         <v>499266611188</v>
       </c>
       <c r="I100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J100" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L100" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5806,19 +5806,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G101">
         <v>7812885388</v>
@@ -5827,16 +5827,16 @@
         <v>983969674177</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -5847,5 +5847,6 @@
     <hyperlink ref="F22" r:id="rId3" xr:uid="{A2082D9D-AA4A-4236-BCD4-7F07266FC061}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>